--- a/Scrapin/AmazonScrapin/BasesDeDatosLimpias/Software.xlsx
+++ b/Scrapin/AmazonScrapin/BasesDeDatosLimpias/Software.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Microsoft-Office-Student-Compra-Descargar/dp/B09H7GPR1G/ref=sr_1_1?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-1</t>
+          <t>https://www.amazon.com/-/es/Microsoft-Office-Student-Compra-Descargar/dp/B09H7GPR1G/ref=sr_1_1?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,7 +518,7 @@
         <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>5996</v>
+        <v>6021</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -530,21 +530,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Microsoft-Office-Business-Compra-Descargar/dp/B09H7F77JR/ref=sr_1_2?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-2</t>
+          <t>https://www.amazon.com/-/es/dp/B0CLBPQX99/ref=sr_1_2?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Microsoft Office Home &amp; Business 2021 | Compra única para 1 PC o Mac | Descargar</t>
+          <t>TurboTax Business 2023 Tax Software, Federal Tax Return [PC Download]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B09H7F77JR</t>
+          <t>B0CLBPQX99</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>229.99</v>
+        <v>179.99</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -553,18 +553,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>853</v>
+        <v>878</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61hSSVPvT3L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71yyAB8-OPL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -572,21 +572,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Microsoft-Suscripci%C3%B3n-Aplicaciones-Almacenamiento-activaci%C3%B3n/dp/B07F3TQ6DQ/ref=sr_1_3?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-3</t>
+          <t>https://www.amazon.com/-/es/Microsoft-Office-Business-Compra-Descargar/dp/B09H7F77JR/ref=sr_1_3?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Microsoft 365 Personal | Suscripción de 12 meses, 1 persona| Aplicaciones de oficina premium | Almacenamiento en la nube OneDrive de 1 TB | Descarga de PC/Mac | Se requiere activación</t>
+          <t>Microsoft Office Home &amp; Business 2021 | Compra única para 1 PC o Mac | Descargar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B07F3TQ6DQ</t>
+          <t>B09H7F77JR</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69.98999999999999</v>
+        <v>229.99</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -595,18 +595,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>10866</v>
+        <v>857</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61pCCojbi-L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61hSSVPvT3L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -614,17 +614,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CLBV27N2/ref=sr_1_4?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-4</t>
+          <t>https://www.amazon.com/-/es/Microsoft-Suscripci%C3%B3n-Aplicaciones-Almacenamiento-activaci%C3%B3n/dp/B07F3TQ6DQ/ref=sr_1_4?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TurboTax Deluxe 2023 Tax Software, Federal &amp; State Tax Return [Amazon Exclusive] [PC/Mac Download]</t>
+          <t>Microsoft 365 Personal | Suscripción de 12 meses, 1 persona| Aplicaciones de oficina premium | Almacenamiento en la nube OneDrive de 1 TB | Descarga de PC/Mac | Se requiere activación</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B0CLBV27N2</t>
+          <t>B07F3TQ6DQ</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -644,11 +644,11 @@
         <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>14823</v>
+        <v>10880</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/719rCYQpjdL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61pCCojbi-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -656,21 +656,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07Q4QZGFR/ref=sr_1_5?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-5</t>
+          <t>https://www.amazon.com/-/es/dp/B0CLC5MKTP/ref=sr_1_5?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acrobat Pro | 12-Month Subscription | PDF Software |Convert, Edit, E-Sign, Protect |Activation Required [PC/Mac Online Code]</t>
+          <t>TurboTax Home &amp; Business 2023 Tax Software, Federal &amp; State Tax Return [Amazon Exclusive] [PC/Mac Download]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B07Q4QZGFR</t>
+          <t>B0CLC5MKTP</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>239.88</v>
+        <v>119.99</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -683,14 +683,14 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1048</v>
+        <v>4351</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51XI9kYWK8L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71K4wikrrkL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -698,21 +698,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Actualizaci%C3%B3n-Windows-desde-descarga-digital/dp/B09WCTTXQ6/ref=sr_1_6?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-6</t>
+          <t>https://www.amazon.com/-/es/TI-84-Plus-Python-Calculadora-infinitamente/dp/B094Z8N8JS/ref=sr_1_6?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Actualización de Windows 11 Pro, desde Windows 11 Home (descarga digital)</t>
+          <t>TI-84 Plus CE Python - Calculadora gráfica a color, infinitamente iris</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B09WCTTXQ6</t>
+          <t>B094Z8N8JS</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -721,40 +721,42 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
-        <v>511</v>
+        <v>46353</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61R6ivLSfrL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71+kU8OKi3L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Norton-360-Deluxe-2021-dispositivos/dp/B07Q33SJDW/ref=sr_1_7?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-7</t>
+          <t>https://www.amazon.com/-/es/dp/B0CLBV27N2/ref=sr_1_7?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Norton 360 Deluxe 2021 - Software antivirus para 5 dispositivos con renovación automática - Incluye VPN, copia de seguridad en la nube de PC y supervisión de web oscura con tecnología LifeLock [Descargar]</t>
+          <t>TurboTax Deluxe 2023 Tax Software, Federal &amp; State Tax Return [Amazon Exclusive] [PC/Mac Download]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B07Q33SJDW</t>
+          <t>B0CLBV27N2</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -763,18 +765,18 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>14904</v>
+        <v>14899</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71XafXsPo6L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/719rCYQpjdL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -782,21 +784,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CJZ3DKTZ/ref=sr_1_8?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-8</t>
+          <t>https://www.amazon.com/-/es/dispositivos-administrador-contrase%C3%B1as-Suscripci%C3%B3n-instant%C3%A1nea/dp/B0BB2N69J8/ref=sr_1_8?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Adobe | Photoshop Elements 2024 | Windows PC Code | Software Download | Photo Editing [PC Online code]</t>
+          <t>McAfee Protección total 2023 | 3 dispositivos | Exclusivo de Amazon | Software de seguridad antivirus de Internet | VPN, administrador de contraseñas, monitoreo de web oscura | Suscripción de 1 año | Código de descarga instantánea</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B0CJZ3DKTZ</t>
+          <t>B0BB2N69J8</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81.81999999999999</v>
+        <v>19.99</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -805,18 +807,18 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>105</v>
+        <v>4973</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71z+VzYnh7L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61Xnk7S9JrL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -824,21 +826,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/antivirus-dispositivos-renovaci%C3%B3n-autom%C3%A1tica-seguridad/dp/B07Q6B5YL5/ref=sr_1_9?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-9</t>
+          <t>https://www.amazon.com/-/es/Actualizaci%C3%B3n-Windows-desde-descarga-digital/dp/B09WCTTXQ6/ref=sr_1_9?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Norton 360 Premium, 2023 Ready, software antivirus para 10 dispositivos con renovación automática, incluye VPN, copia de seguridad en la nube de PC y monitoreo web oscuro [descarga]</t>
+          <t>Actualización de Windows 11 Pro, desde Windows 11 Home (descarga digital)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B07Q6B5YL5</t>
+          <t>B09WCTTXQ6</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29.99</v>
+        <v>99</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -847,18 +849,18 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4797</v>
+        <v>514</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71q3Z-U+2xL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61R6ivLSfrL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -866,21 +868,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CJCWHXH2/ref=sr_1_10?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-10</t>
+          <t>https://www.amazon.com/-/es/dp/B0CLBVVRF3/ref=sr_1_10?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>H&amp;R Block Tax Software Deluxe + State 2023 with Refund Bonus Offer (Amazon Exclusive) (PC/MAC Download)</t>
+          <t>TurboTax Premier 2023 Tax Software, Federal &amp; State Tax Return [Amazon Exclusive] [PC/Mac Download]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B0CJCWHXH2</t>
+          <t>B0CLBVVRF3</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>39.97</v>
+        <v>104.99</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -889,18 +891,18 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
-        <v>4116</v>
+        <v>5973</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51WNth-N57L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71ABLSmFI3L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -908,21 +910,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/configuraci%C3%B3n-dispositivo-dispositivos-administrador-contrase%C3%B1as/dp/B0BB2GF9WW/ref=sr_1_11?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-11</t>
+          <t>https://www.amazon.com/-/es/dp/B07Q4QZGFR/ref=sr_1_11?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>McAfee Protección total 2023 + configuración de nuevo dispositivo | Exclusivo de Amazon | 5 dispositivos | Software de seguridad de Internet antivirus | VPN, administrador de contraseñas, monitoreo de web oscura | Suscripción de 1 año | Código de descarga</t>
+          <t>Acrobat Pro | 12-Month Subscription | PDF Software |Convert, Edit, E-Sign, Protect |Activation Required [PC/Mac Online Code]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B0BB2GF9WW</t>
+          <t>B07Q4QZGFR</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22.99</v>
+        <v>239.88</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -931,18 +933,18 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H12" t="n">
-        <v>1179</v>
+        <v>1050</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61V1zkRftoL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51XI9kYWK8L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -950,21 +952,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTcyMTQyMDkzNjgxNzU0OjE3MjU4ODk4MTk6c3BfbXRmOjIwMDAxNzk4Njc4MDE1MTo6MDo6&amp;url=%2F21389952%2Fdp%2FB07QCVZW81%2Fref%3Dsr_1_12_sspa%3Fdib%3DeyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889819%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1OTIwMjA5OTE2MDM3MToxNzI2NzYwOTczOnNwX210ZjoyMDAwMTE3MjcwNDAyNTE6OjA6Og&amp;url=%2Fs917394%2Fdp%2FB07GVRGKPH%2Fref%3Dsr_1_12_sspa%3Fdib%3DeyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760972%26sr%3D8-12-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Norton 360 Premium 2024, Antivirus software for 10 Devices with Auto Renewal - Includes VPN, PC Cloud Backup &amp; Dark Web Monitoring [Key card]</t>
+          <t>EstateExec Estate Executor Online Software</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B07QCVZW81</t>
+          <t>B07GVRGKPH</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29.99</v>
+        <v>179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -973,42 +975,40 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>600+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>6505</v>
+        <v>30</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71+0sewCxOL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>600</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61pCIHuMO0L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CLBVVRF3/ref=sr_1_13?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-13</t>
+          <t>https://www.amazon.com/-/es/antivirus-dispositivos-renovaci%C3%B3n-autom%C3%A1tica-seguridad/dp/B07Q6B5YL5/ref=sr_1_13?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TurboTax Premier 2023 Tax Software, Federal &amp; State Tax Return [Amazon Exclusive] [PC/Mac Download]</t>
+          <t>Norton 360 Premium, 2023 Ready, software antivirus para 10 dispositivos con renovación automática, incluye VPN, copia de seguridad en la nube de PC y monitoreo web oscuro [descarga]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B0CLBVVRF3</t>
+          <t>B07Q6B5YL5</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>104.99</v>
+        <v>29.99</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1017,18 +1017,18 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>5952</v>
+        <v>4811</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ABLSmFI3L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71q3Z-U+2xL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1036,21 +1036,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CLC5MKTP/ref=sr_1_14?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-14</t>
+          <t>https://www.amazon.com/-/es/configuraci%C3%B3n-dispositivo-dispositivos-administrador-contrase%C3%B1as/dp/B0BB2GF9WW/ref=sr_1_14?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TurboTax Home &amp; Business 2023 Tax Software, Federal &amp; State Tax Return [Amazon Exclusive] [PC/Mac Download]</t>
+          <t>McAfee Protección total 2023 + configuración de nuevo dispositivo | Exclusivo de Amazon | 5 dispositivos | Software de seguridad de Internet antivirus | VPN, administrador de contraseñas, monitoreo de web oscura | Suscripción de 1 año | Código de descarga</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B0CLC5MKTP</t>
+          <t>B0BB2GF9WW</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>119.99</v>
+        <v>22.99</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1059,18 +1059,18 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>4318</v>
+        <v>1188</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71K4wikrrkL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61V1zkRftoL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1078,21 +1078,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dispositivos-administrador-contrase%C3%B1as-Suscripci%C3%B3n-instant%C3%A1nea/dp/B0BB2N69J8/ref=sr_1_15?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-15</t>
+          <t>https://www.amazon.com/-/es/TurboTax-Software-federal-Exclusivo-Descarga/dp/B0BH5MZ7VT/ref=sr_1_15?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>McAfee Protección total 2023 | 3 dispositivos | Exclusivo de Amazon | Software de seguridad antivirus de Internet | VPN, administrador de contraseñas, monitoreo de web oscura | Suscripción de 1 año | Código de descarga instantánea</t>
+          <t>TurboTax Deluxe 2022 Software fiscal federal y estatal, [Exclusivo de Amazon] [Descarga PC/MAC]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B0BB2N69J8</t>
+          <t>B0BH5MZ7VT</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1101,18 +1101,18 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
-        <v>4945</v>
+        <v>10821</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Xnk7S9JrL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71IgMkror-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1120,21 +1120,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/TurboTax-impuestos-federales-estatales-Exclusivo/dp/B0BH5P7142/ref=sr_1_16?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-16</t>
+          <t>https://www.amazon.com/-/es/dp/B0CJCWHXH2/ref=sr_1_16?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TurboTax Home &amp; Business 2022 Software de impuestos federales y estatales, [Exclusivo de Amazon] [Descarga de PC/MAC]</t>
+          <t>H&amp;R Block Tax Software Deluxe + State 2023 with Refund Bonus Offer (Amazon Exclusive) (PC/MAC Download)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B0BH5P7142</t>
+          <t>B0CJCWHXH2</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>119.99</v>
+        <v>39.97</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1143,18 +1143,18 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3396</v>
+        <v>4149</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71SKL1biC-L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51WNth-N57L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1162,21 +1162,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTcyMTQyMDkzNjgxNzU0OjE3MjU4ODk4MTk6c3BfbXRmOjIwMDAxMTcyNzA0MDI1MTo6MDo6&amp;url=%2Fs917394%2Fdp%2FB07GVRGKPH%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889819%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1OTIwMjA5OTE2MDM3MToxNzI2NzYwOTczOnNwX210ZjoyMDAwMjE5NjI3MDM3NzE6OjA6Og&amp;url=%2Fdp%2FB083QRHKNJ%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760972%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EstateExec Estate Executor Online Software</t>
+          <t>Family Tree Heritage Gold 16 - Genealogy Software - Includes Free Searches to FamilySearch, the World's Largest Genealogy Database - CD/PC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B07GVRGKPH</t>
+          <t>B083QRHKNJ</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>179</v>
+        <v>47.99</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1185,40 +1185,42 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61pCIHuMO0L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81ftXVii+fL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/TurboTax-Software-federal-Exclusivo-Descarga/dp/B0BH5MZ7VT/ref=sr_1_18?dib=eyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889819&amp;sr=8-18</t>
+          <t>https://www.amazon.com/-/es/TurboTax-impuestos-federales-estatales-Exclusivo/dp/B0BH5P7142/ref=sr_1_18?dib=eyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760972&amp;sr=8-18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TurboTax Deluxe 2022 Software fiscal federal y estatal, [Exclusivo de Amazon] [Descarga PC/MAC]</t>
+          <t>TurboTax Home &amp; Business 2022 Software de impuestos federales y estatales, [Exclusivo de Amazon] [Descarga de PC/MAC]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>B0BH5MZ7VT</t>
+          <t>B0BH5P7142</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69.98999999999999</v>
+        <v>119.99</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1231,14 +1233,14 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
-        <v>10808</v>
+        <v>3395</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71IgMkror-L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71SKL1biC-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1246,21 +1248,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTcyMTQyMDkzNjgxNzU0OjE3MjU4ODk4MTk6c3BfYnRmOjIwMDAyMTk2MjcwMzc3MTo6MDo6&amp;url=%2Fdp%2FB083QRHKNJ%2Fref%3Dsr_1_20_sspa%3Fdib%3DeyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889819%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1OTIwMjA5OTE2MDM3MToxNzI2NzYwOTczOnNwX2J0ZjoyMDAwMzU4NDY1NTQzMjE6OjA6Og&amp;url=%2FPaul-Richards-ebook%2Fdp%2FB08JKYR1VJ%2Fref%3Dsr_1_20_sspa%3Fdib%3DeyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760972%26sr%3D8-20-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Family Tree Heritage Gold 16 - Genealogy Software - Includes Free Searches to FamilySearch, the World's Largest Genealogy Database - CD/PC</t>
+          <t>The Unofficial Guide to vMix: Professional Live Video Production Software Overview (Live Streaming Book Series)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>B083QRHKNJ</t>
+          <t>B08JKYR1VJ</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47.99</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1269,42 +1271,40 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81ftXVii+fL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71JJPHFw48L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3OTcyMTQyMDkzNjgxNzU0OjE3MjU4ODk4MTk6c3BfYnRmOjIwMDAzNTg0NjU1NDMyMTo6MDo6&amp;url=%2FPaul-Richards-ebook%2Fdp%2FB08JKYR1VJ%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.VLSpTVwScqMPcC-fWfhxrPbMxb7aYO7As8q2aqrsDZUf-sgEelBfXA0kPidc5uqTPqmPKiY7BOK4F0FbAvqj8wM9b7LqMIQTOWw0izYm57RcpLvh5ymI-k-GdHKVGsXP6LcNTdhiuwsnuCG26RbkuZmIoSevpzHj9ajxVleuzBK9zcDgWYZtugA6YZHLtplANLyYPcG3mtlB1r6C1F0WAJdSn-ovz5-VJPH4Tnut2Po.kkchRcrQZmA1iApdqxFF5EtoUG8OKcjSSnoLJua36ZA%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889819%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1OTIwMjA5OTE2MDM3MToxNzI2NzYwOTczOnNwX2J0ZjozMDAzNzMyMTEwNjM3MDI6OjA6Og&amp;url=%2Fdp%2FB0DB2J8SNL%2Fref%3Dsr_1_21_sspa%3Fdib%3DeyJ2IjoiMSJ9.hkU0nAAZ5SU_hEY_TXmzPd4JwkwlDgkEfvP02-GwboaT9dZHpWZZfoqEJEAUG2cbR1CRG9-wd384blNzA_qzqJqmJ96JDwhzV3KEFXRUHfWxY3txTUnNw01k4TIEVZ5jJxzJrPdS9GsOdIYuBes40WFc-ypLZ4-kGdCW2T7XbcW0HiDnLMS57hktv68B_f3Zv8iveZK57oleZLOWH7Z95soMfKux1MVXrHtvonMruZo.kWbC-PLrxoPE530wHWswObecl0irUm8hJFSs6IpKiL0%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760972%26sr%3D8-21-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The Unofficial Guide to vMix: Professional Live Video Production Software Overview (Live Streaming Book Series)</t>
+          <t>VEGAS Pro 22 - All-in-one software for video, audio and post-production | video editing software | video cutting software | video editor | Windows 10/11 PC | 1 license</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B08JKYR1VJ</t>
+          <t>B0DB2J8SNL</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1313,18 +1313,18 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H21" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71JJPHFw48L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51fcdkRkoaL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1332,21 +1332,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NjUyMjU1NDE1MzIzMzExOjE3MjU4ODk4Mzc6c3BfYXRmX25leHQ6MzAwMDc0NTQxNTY4NjAyOjowOjo&amp;url=%2FAdobe-Photoshop-Elements-2024-Download%2Fdp%2FB0CFZLNWM1%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889837%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0ODMyODE5NjU3NDkwMTMzOjE3MjY3NjA5ODg6c3BfYXRmX25leHQ6MjAwMDY1OTA0MzUwMTUxOjowOjo&amp;url=%2F21389952%2Fdp%2FB07QCVZW81%2Fref%3Dsr_1_17_sspa%3Fdib%3DeyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760988%26sr%3D8-17-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adobe Photoshop Elements 2024 | Box with Download Code</t>
+          <t>Norton 360 Premium 2024, Antivirus software for 10 Devices with Auto Renewal - Includes VPN, PC Cloud Backup &amp; Dark Web Monitoring [Key card]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B0CFZLNWM1</t>
+          <t>B07QCVZW81</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>99.98999999999999</v>
+        <v>24.99</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1355,42 +1355,42 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>800+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="n">
-        <v>90</v>
+        <v>6508</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81NusM4VaCL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71+0sewCxOL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NjUyMjU1NDE1MzIzMzExOjE3MjU4ODk4Mzc6c3BfYXRmX25leHQ6MjAwMDI2Nzk4MDUwMTUxOjowOjo&amp;url=%2Fs917441%2Fdp%2FB0045WAF9U%2Fref%3Dsr_1_18_sspa%3Fdib%3DeyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889837%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0ODMyODE5NjU3NDkwMTMzOjE3MjY3NjA5ODg6c3BfYXRmX25leHQ6MzAwMTQ5Mjk3ODc3NjAyOjowOjo&amp;url=%2Fjack-m%25C3%25B3dulo-U3-LV-bajo-voltaje%2Fdp%2FB000NF9CAG%2Fref%3Dsr_1_18_sspa%3Fdib%3DeyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760988%26sr%3D8-18-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CheckBuilderPro - Windows &amp; Mac Check Printing Software</t>
+          <t>Lab jack módulo USB U3-LV de bajo voltaje - Dispositivo DAQ de adquisición de datos de alta velocidad con 4 entradas analógicas - E/S digital y canales de E/S flexibles - Compatible con software de</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B0045WAF9U</t>
+          <t>B000NF9CAG</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>59.95</v>
+        <v>176</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1399,42 +1399,40 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H23" t="n">
-        <v>470</v>
+        <v>14</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61wr-Mm2qPL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/41jgSUzv17L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0BLXCXT3R/ref=sr_1_19?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-19</t>
+          <t>https://www.amazon.com/-/es/dp/B0CJZCHXG7/ref=sr_1_19?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modern Software Engineering: Doing What Works to Build Better Software Faster</t>
+          <t>Adobe | Photoshop Elements 2024 | Mac Code | Software Download | Photo Editing [Mac Online Code]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B0BLXCXT3R</t>
+          <t>B0CJZCHXG7</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1447,14 +1445,14 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H24" t="n">
-        <v>563</v>
+        <v>21</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81T-gUuACHL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71z+VzYnh7L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1462,21 +1460,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Software-impuestos-reembolso-exclusivo-Descarga/dp/B0BCCLLYG3/ref=sr_1_20?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-20</t>
+          <t>https://www.amazon.com/-/es/dp/B0CFVZTP97/ref=sr_1_20?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H&amp;R Block Software de impuestos Deluxe + State 2022 con oferta de bono de reembolso (exclusivo de mazon) [Descarga de PC]</t>
+          <t>Software Architecture: The Hard Parts: Modern Trade-Off Analyses for Distributed Architectures</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B0BCCLLYG3</t>
+          <t>B0CFVZTP97</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>44.99</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1485,18 +1483,18 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3857</v>
+        <v>539</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71L-QsTnZhL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81554zAr3zL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1504,21 +1502,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Software-Architecture-Trade-Off-Distributed-Architectures/dp/1492086894/ref=sr_1_21?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-21</t>
+          <t>https://www.amazon.com/-/es/Norton-360-Deluxe-2021-dispositivos/dp/B07Q33SJDW/ref=sr_1_21?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Software Architecture: The Hard Parts: Modern Trade-Off Analyses for Distributed Architectures</t>
+          <t>Norton 360 Deluxe 2021 - Software antivirus para 5 dispositivos con renovación automática - Incluye VPN, copia de seguridad en la nube de PC y supervisión de web oscura con tecnología LifeLock [Descargar]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1492086894</t>
+          <t>B07Q33SJDW</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43.99</v>
+        <v>34.99</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1527,18 +1525,18 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>539</v>
+        <v>14922</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81sdcxLtlwL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71XafXsPo6L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1546,21 +1544,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Gergely-Orosz/dp/908338182X/ref=sr_1_22?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-22</t>
+          <t>https://www.amazon.com/-/es/dp/B0BLXCXT3R/ref=sr_1_22?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Software Engineer's Guidebook: Navigating senior, tech lead, and staff engineer positions at tech companies and startups</t>
+          <t>Modern Software Engineering: Doing What Works to Build Better Software Faster</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>908338182X</t>
+          <t>B0BLXCXT3R</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34.19</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1569,18 +1567,18 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H27" t="n">
-        <v>277</v>
+        <v>567</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51oAA5ZfaNL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81T-gUuACHL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1588,21 +1586,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B06XGTN6S6/ref=sr_1_23?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-23</t>
+          <t>https://www.amazon.com/-/es/FQC-10529/dp/B09MYBD79G/ref=sr_1_23?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-23</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WavePad Free Audio Editor – Create Music and Sound Tracks with Audio Editing Tools and Effects [Download]</t>
+          <t>Microsoft OEM System Builder | Windоws 11 Pro | Intended use for new systems | Authorized by Microsoft</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B06XGTN6S6</t>
+          <t>B09MYBD79G</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>159.99</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1611,18 +1609,18 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H28" t="n">
-        <v>1419</v>
+        <v>1403</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/B1HPw+BmlXS._AC_UY218_.png</t>
+          <t>https://m.media-amazon.com/images/I/61p-Ylv5vtL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1630,21 +1628,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CLBPQX99/ref=sr_1_24?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-24</t>
+          <t>https://www.amazon.com/-/es/Microsoft-Suscripci%C3%B3n-Aplicaciones-Almacenamiento-activaci%C3%B3n/dp/B07F3SNQT5/ref=sr_1_24?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TurboTax Business 2023 Tax Software, Federal Tax Return [PC Download]</t>
+          <t>Microsoft Familia 365 | Suscripción de 12 meses, hasta 6 personas | Aplicaciones de oficina premium | Almacenamiento en la nube OneDrive de 1 TB | Descarga de PC/Mac | Se requiere activación</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B0CLBPQX99</t>
+          <t>B07F3SNQT5</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>179.99</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1657,14 +1655,14 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H29" t="n">
-        <v>872</v>
+        <v>2754</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71yyAB8-OPL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61qISsi8rAL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1672,21 +1670,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B08X2NK3QQ/ref=sr_1_25?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-25</t>
+          <t>https://www.amazon.com/-/es/antivirus-dispositivos-renovaci%C3%B3n-autom%C3%A1tica-seguridad/dp/B07Q8JGCSQ/ref=sr_1_25?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ESET Home Security Premium | Antivirus | 2024 Edition | 5 Devices | 1 Year| Password Manager | Privacy Protection | Ransomware | Anti-Theft | Digital Download [PC/Mac/Android]</t>
+          <t>Norton 360 Deluxe, 2023 Ready, software antivirus para 3 dispositivos con renovación automática, incluye VPN, copia de seguridad en la nube de PC y monitoreo web oscuro [descarga]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B08X2NK3QQ</t>
+          <t>B07Q8JGCSQ</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47.99</v>
+        <v>19.99</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1699,14 +1697,14 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H30" t="n">
-        <v>85</v>
+        <v>5135</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61JitT2tpiL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71uuBMzSgrL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1714,21 +1712,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Norton-Utilities-Ultimate-acelera-Descargar/dp/B09VLYKW94/ref=sr_1_26?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-26</t>
+          <t>https://www.amazon.com/-/es/dp/B07K3WFN5T/ref=sr_1_26?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-26</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Norton Utilities Ultimate – limpia y acelera tu PC, solo PC con Windows [Descargar]</t>
+          <t>SAP Crystal Reports 2016 Reporting software [32 Bit] [PC Download]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B09VLYKW94</t>
+          <t>B07K3WFN5T</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19.99</v>
+        <v>495</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1737,18 +1735,18 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>603</v>
+        <v>3</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61zuLMONS9L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51xTBikdUcL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1756,21 +1754,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NjUyMjU1NDE1MzIzMzExOjE3MjU4ODk4Mzc6c3BfbXRmOjIwMDAxOTU2NDcyNTA4MTo6MDo6&amp;url=%2FBecome-Awesome-Software-Architect-Foundation%2Fdp%2F1697271065%2Fref%3Dsr_1_27_sspa%3Fdib%3DeyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889837%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0ODMyODE5NjU3NDkwMTMzOjE3MjY3NjA5ODg6c3BfbXRmOjIwMDAxNDQxNzgwMzg3MTo6MDo6&amp;url=%2FPMM-PLIB%2Fdp%2FB071798YC1%2Fref%3Dsr_1_27_sspa%3Fdib%3DeyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760988%26sr%3D8-27-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Become an Awesome Software Architect: Book 1: Foundation 2019</t>
+          <t>Individual Software Professor Teaches Online Library V.1 (3-Users) - Training for Office 2019 &amp; 2016 Apps, Windows 10 Tutorials, QuickBooks 2021 &amp; 2020 &amp; More!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1697271065</t>
+          <t>B071798YC1</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>44.56</v>
+        <v>17.99</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1783,14 +1781,14 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81G3yVLBeIL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/818MAJM-ZbL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1798,21 +1796,21 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NjUyMjU1NDE1MzIzMzExOjE3MjU4ODk4Mzc6c3BfbXRmOjIwMDA0NDc2NTM5MTg5ODo6MDo6&amp;url=%2Fdp%2FB09VZG2N9T%2Fref%3Dsr_1_28_sspa%3Fdib%3DeyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889837%26sr%3D8-28-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dispositivo-administrador-contrase%C3%B1as-Suscripci%C3%B3n-instant%C3%A1nea/dp/B0BB2P338G/ref=sr_1_28?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Home design and 3D construction software compatible with Windows 11, 10, 8.1, 7 - Plan and design buildings from initial rough sketches to the finished blueprints - 3D CAD 8 Professional</t>
+          <t>McAfee Protección total 2023 | 1 dispositivo | Exclusivo de Amazon | Software de seguridad antivirus de Internet | VPN, administrador de contraseñas, monitoreo de web oscura | Suscripción de 1 año | Código de descarga instantánea</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>B09VZG2N9T</t>
+          <t>B0BB2P338G</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>49.99</v>
+        <v>15.99</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1821,18 +1819,18 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71bLlK8aF0L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61NSgPX1zTL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1840,21 +1838,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/RECDB2MLMBAM/dp/B07RS7XV5D/ref=sr_1_29?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-29</t>
+          <t>https://www.amazon.com/-/es/Bitdefender-Seguridad-total-dispositivos-Suscripci%C3%B3n/dp/B07CYFFH4H/ref=sr_1_29?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Corel Easy CD &amp; DVD Burning 2 | Disc Burner &amp; Video Capture [PC Disc]</t>
+          <t>Bitdefender Seguridad total: 5 dispositivos | Suscripción de 1 año | PC/Mac | Código de activación por correo electrónico</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B07RS7XV5D</t>
+          <t>B07CYFFH4H</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>14.99</v>
+        <v>44.99</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1863,42 +1861,40 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H34" t="n">
-        <v>1888</v>
+        <v>2313</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71DjNLyzK7L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>200</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/714clBtOSiL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Microsoft-Suscripci%C3%B3n-Aplicaciones-Almacenamiento-activaci%C3%B3n/dp/B07F3SNQT5/ref=sr_1_30?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-30</t>
+          <t>https://www.amazon.com/-/es/RECDB2MLMBAM/dp/B07RS7XV5D/ref=sr_1_30?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Microsoft Familia 365 | Suscripción de 12 meses, hasta 6 personas | Aplicaciones de oficina premium | Almacenamiento en la nube OneDrive de 1 TB | Descarga de PC/Mac | Se requiere activación</t>
+          <t>Corel Easy CD &amp; DVD Burning 2 | Disc Burner &amp; Video Capture [PC Disc]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B07F3SNQT5</t>
+          <t>B07RS7XV5D</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>99.98999999999999</v>
+        <v>14.99</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1907,40 +1903,42 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="H35" t="n">
-        <v>2750</v>
+        <v>1888</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61qISsi8rAL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71DjNLyzK7L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Mark-Richards/dp/1492043451/ref=sr_1_31?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-31</t>
+          <t>https://www.amazon.com/-/es/Software-impuestos-reembolso-exclusivo-Descarga/dp/B0BCCLLYG3/ref=sr_1_31?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fundamentals of Software Architecture: An Engineering Approach</t>
+          <t>H&amp;R Block Software de impuestos Deluxe + State 2022 con oferta de bono de reembolso (exclusivo de mazon) [Descarga de PC]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1492043451</t>
+          <t>B0BCCLLYG3</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>43.99</v>
+        <v>44.99</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1949,18 +1947,18 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H36" t="n">
-        <v>967</v>
+        <v>3860</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/9193iMIxVTL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71L-QsTnZhL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1968,21 +1966,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/FQC-10529/dp/B09MYBD79G/ref=sr_1_32?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-32</t>
+          <t>https://www.amazon.com/-/es/Individual-Dispositivos-ilimitados-Protecci%C3%B3n-Suscripci%C3%B3n/dp/B0BB2N3SM3/ref=sr_1_32?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-32</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Microsoft OEM System Builder | Windоws 11 Pro | Intended use for new systems | Authorized by Microsoft</t>
+          <t>McAfee + Individual Premium 2023 | Dispositivos ilimitados | Seguridad premium | Monitoreo de identidad mejorado 24/7, | Protección de privacidad en línea | Suscripción de 1 año | Código de descarga</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B09MYBD79G</t>
+          <t>B0BB2N3SM3</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>159.99</v>
+        <v>34.99</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1991,18 +1989,18 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
-        <v>1391</v>
+        <v>292</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61p-Ylv5vtL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61Q4OGNo5XL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -2010,21 +2008,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Sandro-Mancuso/dp/0134052501/ref=sr_1_33?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-33</t>
+          <t>https://www.amazon.com/-/es/dp/B06XGTN6S6/ref=sr_1_33?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-33</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Software Craftsman, The: Professionalism, Pragmatism, Pride (Robert C. Martin Series)</t>
+          <t>WavePad Free Audio Editor – Create Music and Sound Tracks with Audio Editing Tools and Effects [Download]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0134052501</t>
+          <t>B06XGTN6S6</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>28.85</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2033,18 +2031,18 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
-        <v>428</v>
+        <v>1421</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Di1phUP5L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/B1HPw+BmlXS._AC_UY218_.png</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -2052,21 +2050,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Individual-Dispositivos-ilimitados-Protecci%C3%B3n-Suscripci%C3%B3n/dp/B0BB2N3SM3/ref=sr_1_34?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-34</t>
+          <t>https://www.amazon.com/-/es/Martin-Kleppmann/dp/1449373321/ref=sr_1_34?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-34</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>McAfee + Individual Premium 2023 | Dispositivos ilimitados | Seguridad premium | Monitoreo de identidad mejorado 24/7, | Protección de privacidad en línea | Suscripción de 1 año | Código de descarga</t>
+          <t>Designing Data-Intensive Applications: The Big Ideas Behind Reliable, Scalable, and Maintainable Systems</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B0BB2N3SM3</t>
+          <t>1449373321</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>34.99</v>
+        <v>46.91</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2075,18 +2073,18 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H39" t="n">
-        <v>289</v>
+        <v>4889</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Q4OGNo5XL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/91YfNb49PLL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -2094,21 +2092,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Software-Engineering-Google-Lessons-Programming/dp/1492082791/ref=sr_1_35?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-35</t>
+          <t>https://www.amazon.com/-/es/dp/B0CFSX431Z/ref=sr_1_35?dib=eyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760988&amp;sr=8-35</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Software Engineering at Google: Lessons Learned from Programming Over Time</t>
+          <t>Quicken Classic Deluxe for New Subscribers| 1 Year [PC/Mac Online Code]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1492082791</t>
+          <t>B0CFSX431Z</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>32.99</v>
+        <v>41.93</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2117,18 +2115,18 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
-        <v>731</v>
+        <v>130</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81bSa9px6qL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61ypcFpjCuL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -2136,21 +2134,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Steven-Sinofsky-ebook/dp/B0CYBS9PFY/ref=sr_1_36?dib=eyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889837&amp;sr=8-36</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0ODMyODE5NjU3NDkwMTMzOjE3MjY3NjA5ODg6c3BfYnRmOjMwMDM3MzIxMTA2NDAwMjo6MDo6&amp;url=%2FVEGAS-Pro-Edit-21%2Fdp%2FB0CF256CSR%2Fref%3Dsr_1_36_sspa%3Fdib%3DeyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760988%26sr%3D8-36-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hardcore Software: Inside the Rise and Fall of the PC Revolution</t>
+          <t>VEGAS Pro Edit 21 - The creative standard for video and audio | video editing software | video cutting software | video editor | Windows 10/11 PC | 1 license</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B0CYBS9PFY</t>
+          <t>B0CF256CSR</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9.99</v>
+        <v>159</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2159,18 +2157,18 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81FOzIYpUeL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/711wFSI30sL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2178,21 +2176,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4NjUyMjU1NDE1MzIzMzExOjE3MjU4ODk4Mzc6c3BfYnRmOjMwMDE2NjA0NjY0NDAwMjo6MDo6&amp;url=%2F639191550867%2Fdp%2FB0D17NV3HW%2Fref%3Dsr_1_38_sspa%3Fdib%3DeyJ2IjoiMSJ9.NwrIt52VntSVwI0fHHze_ScEFteD9vPVogXyEnnE7D6ImWMzn3hKij7KlFraBFbS837Waj_6mQfllJcxhrLs8OvrWMKIN3OdI4PcXduIPooxVqiTrKhypx0OCaJc9Ju1STGFNmrFHDITiC8Y0SswQr_35neLOLFkVpRKdnVZ_lRlQO8BxfLQlaaxZ1B7zvPCHKtMOHP3PAPITtTZiiW053gB6hdvmFDr0T87OwXIcQ8.7R6D2U7j_f8cpmaA7fdrFdiFa-DH0YliYXdfli3IhXw%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889837%26sr%3D8-38-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0ODMyODE5NjU3NDkwMTMzOjE3MjY3NjA5ODg6c3BfYnRmOjMwMDM3MzIxMTA2MzkwMjo6MDo6&amp;url=%2FVEGAS-Pro-Suite-21%2Fdp%2FB0CF28MWL3%2Fref%3Dsr_1_37_sspa%3Fdib%3DeyJ2IjoiMSJ9.5uZ1O1KewICmp13Iui4Fui8WM3qa5Kts-8MillYRnoQVS0VbmGdzHIVWyFK_DtYG4TRjeetOF_qSd5ayqVoMx1WigUq1EU-N0eVh03ta6J5rDuHUQMEs2plrnBVU3jdAsa-xzWMv7trDkYafiOzVYoE_w0Xehk5uvdgayUjDKZ95BhlY2b9347ms-fkMCsH2VHNdwap_C-n303xFCxyRL9mCdHcprBsoVZ8aM5RkRLU.vTZ_nUf6BlN-RwEA2K2e0rE1S_WTefBwMHCxZLZO7PE%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760988%26sr%3D8-37-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAGIX Video Pro X16 - Creative video editing I Video editing program I Video editing program I Video editing software | Windows 10 / 11 I 1 full license for 2 devices in a practical shipping box</t>
+          <t>VEGAS Pro Suite 21 - Integrated video and audio editing tools for content creators | video editing software | video cutting software | video editor | Windows 10/11 PC | 1 license</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B0D17NV3HW</t>
+          <t>B0CF28MWL3</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2201,18 +2199,18 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71AQY-dNt7L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71+49e1Mw8L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -2220,21 +2218,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MjU4MTU3MzgzODM5NjAyOjE3MjU4ODk4NTE6c3BfYXRmX25leHQ6MzAwMTU4NzcyNjM1MjAyOjowOjo&amp;url=%2FSoundBeast-captura-video-HD-4K%2Fdp%2FB0CW2CMPD9%2Fref%3Dsr_1_33_sspa%3Fdib%3DeyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889851%26sr%3D8-33-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1%26smid%3DA8FDJS8O5L8CJ</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MzkyNzg5NDU4Nzk4ODgyOjE3MjY3NjA5OTk6c3BfYXRmX25leHQ6MzAwNDAyMzczMzc1MzAyOjowOjo&amp;url=%2FMax-Clark%2Fdp%2FB0CYLHS68G%2Fref%3Dsr_1_33_sspa%3Fdib%3DeyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760999%26sr%3D8-33-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SoundBeast Caja de captura de video HD 4K - Captura o transmisión de video en vivo (con audio) desde HDMI, AV, VHS, VCR, DVD, videocámaras, Hi8, MiniDV - LCD de vista previa de 5 pulgadas y altavoz</t>
+          <t>The Microsoft Office 365 Bible: The Complete and Easy-To-Follow Guide to Master the 9 Most In-Demand Microsoft Programs - Secret Tips &amp; Shortcuts to Stand out From the Crowd and Impress Your Boss</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B0CW2CMPD9</t>
+          <t>B0CYLHS68G</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>249.95</v>
+        <v>26.97</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2243,18 +2241,18 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H43" t="n">
-        <v>19</v>
+        <v>271</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81a0z4VUxNL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61a7YKF6tYL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -2262,21 +2260,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MjU4MTU3MzgzODM5NjAyOjE3MjU4ODk4NTE6c3BfYXRmX25leHQ6MjAwMDUyMTk2MzU3MzMxOjowOjo&amp;url=%2FJ5create-Tarjeta-captura-v%25C3%25ADdeo-JVA06%2Fdp%2FB08QJJ98T8%2Fref%3Dsr_1_34_sspa%3Fdib%3DeyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889851%26sr%3D8-34-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MzkyNzg5NDU4Nzk4ODgyOjE3MjY3NjA5OTk6c3BfYXRmX25leHQ6MzAwMzMyMTkyMzYwNjAyOjowOjo&amp;url=%2FJordan-Ranul%2Fdp%2FB0DBYJ2VF3%2Fref%3Dsr_1_34_sspa%3Fdib%3DeyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760999%26sr%3D8-34-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>J5create Tarjeta de captura de vídeo en vivo JVA06 - Dual HDMI a USB-C, compatible con grabación de vídeo y audio de 1080p 60Hz, entrega de potencia de 60W paso, ideal para PC Xbox Playstation Android juego en vivo</t>
+          <t>Mastering ML System Design Interviews: The Definitive Guide to AI-Powered Machine Learning, AutoML, Edge Computing and Federated Learning</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B08QJJ98T8</t>
+          <t>B0DBYJ2VF3</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>199.99</v>
+        <v>22.71</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2285,18 +2283,18 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H44" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71ZH6JT6DOS._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61P6SaMw2SL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -2304,21 +2302,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Marca-nuevo-Corporation-Dazzle-Recorder/dp/B00EAS14KI/ref=sr_1_35?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-35</t>
+          <t>https://www.amazon.com/-/es/dp/B08X2NK3QQ/ref=sr_1_35?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-35</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marca nuevo Corel Corporation Dazzle DVD Recorder HD</t>
+          <t>ESET Home Security Premium | Antivirus | 2024 Edition | 5 Devices | 1 Year| Password Manager | Privacy Protection | Ransomware | Anti-Theft | Digital Download [PC/Mac/Android]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B00EAS14KI</t>
+          <t>B08X2NK3QQ</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>49</v>
+        <v>47.99</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2327,38 +2325,36 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H45" t="n">
-        <v>1639</v>
+        <v>86</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61KdP+KMhJL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61JitT2tpiL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Controlador-port%C3%A1til-alimentaci%C3%B3n-compatible-computadora/dp/B0CY232QBM/ref=sr_1_36?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-36</t>
+          <t>https://www.amazon.com/-/es/dp/B0BZ2MBZK5/ref=sr_1_36?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-36</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Unitek Controlador de DVD externo USB C portátil CD/DVD +/-RW Drive/DVD con lector de tarjetas SD Hub USB 3.0 Hub USB C Puerto de alimentación CD ROM quemador compatible con computadora portátil PC de</t>
+          <t>McAfee Total Protection 2024 | 5 Devices | 15 Month Subscription | Cybersecurity software includes Antivirus, Secure VPN, Password Manager, Dark Web Monitoring | Amazon Exclusive | Download</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>B0CY232QBM</t>
+          <t>B0BZ2MBZK5</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2371,42 +2367,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H46" t="n">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71jHTX2QJTL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/614CALAsN7L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/John-Ousterhout/dp/173210221X/ref=sr_1_37?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-37</t>
+          <t>https://www.amazon.com/-/es/dispositivos-Administrador-contrase%C3%B1as-optimizador-rendimiento/dp/B07DDL3N69/ref=sr_1_37?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-37</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A Philosophy of Software Design, 2nd Edition</t>
+          <t>Webroot Seguridad de Internet completa | Software antivirus 2023 | 5 dispositivos | Descarga de 1 año para PC/Mac/Chromebook/Android/IOS + Administrador de contraseñas, optimizador de rendimiento y copia de seguridad en la nube</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>173210221X</t>
+          <t>B07DDL3N69</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>20.66</v>
+        <v>31.99</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2415,18 +2409,18 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H47" t="n">
-        <v>2069</v>
+        <v>1768</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/711Qnv05eTL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71dSKXXc54L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2434,21 +2428,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0D48139YN/ref=sr_1_38?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-38</t>
+          <t>https://www.amazon.com/-/es/Software-impuestos-negocios-reembolso-exclusivo/dp/B0BCC4KXLK/ref=sr_1_38?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-38</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Adobe Creative Cloud All Apps | Student &amp; Teacher Discount |PC/MAC Online Code</t>
+          <t>H&amp;R Block Software de impuestos premium y negocios 2022 con oferta de bono de reembolso (exclusivo de mazón) [Descarga de PC]</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>B0D48139YN</t>
+          <t>B0BCC4KXLK</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>239.88</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2461,14 +2455,14 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>452</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61SFszzTaRL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/712wnjKatGL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2476,21 +2470,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/MAL951800F113/dp/B07PNFRCZS/ref=sr_1_39?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-39</t>
+          <t>https://www.amazon.com/-/es/TurboTax-Premier-2022-Software-Exclusivo/dp/B0BH5NRLP3/ref=sr_1_39?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-39</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Malwarebytes Premium Software | Amazon Exclusive | 18 Months, 2 Devices (Windows, Mac OS, Android, Apple iOS, Chrome) [software_key_card]</t>
+          <t>TurboTax Premier 2022 - Software fiscal federal y estatal, [Exclusivo de Amazon] [Descarga PC/MAC]</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>B07PNFRCZS</t>
+          <t>B0BH5NRLP3</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>39.99</v>
+        <v>104.99</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2503,14 +2497,14 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H49" t="n">
-        <v>911</v>
+        <v>4106</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71rsrG965bL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71Evk12-vJL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2518,21 +2512,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Bitdefender-Seguridad-total-dispositivos-Suscripci%C3%B3n/dp/B07CYFFH4H/ref=sr_1_40?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-40</t>
+          <t>https://www.amazon.com/-/es/Norton-Utilities-Ultimate-acelera-Descargar/dp/B09VLYKW94/ref=sr_1_40?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-40</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bitdefender Seguridad total: 5 dispositivos | Suscripción de 1 año | PC/Mac | Código de activación por correo electrónico</t>
+          <t>Norton Utilities Ultimate – limpia y acelera tu PC, solo PC con Windows [Descargar]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>B07CYFFH4H</t>
+          <t>B09VLYKW94</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>44.99</v>
+        <v>19.99</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2545,14 +2539,14 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H50" t="n">
-        <v>2304</v>
+        <v>609</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/714clBtOSiL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61zuLMONS9L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2560,21 +2554,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Cloudray-LightBurn-Software-G-Code-m%C3%A1quinas/dp/B0CQ846W5L/ref=sr_1_41?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-41</t>
+          <t>https://www.amazon.com/-/es/dp/B07XW27GDY/ref=sr_1_41?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-41</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cloudray LightBurn Software G-Code, para la mayoría de máquinas de grabado Blu-ray</t>
+          <t>PrintMaster v8 Platinum [PC Download]</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>B0CQ846W5L</t>
+          <t>B07XW27GDY</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>69.98999999999999</v>
+        <v>39.99</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2583,18 +2577,18 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
-        <v>12</v>
+        <v>514</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51Yq6d+TOYL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51NXpdKGEKL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2602,21 +2596,21 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0BZ2MBZK5/ref=sr_1_42?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-42</t>
+          <t>https://www.amazon.com/-/es/Gergely-Orosz/dp/908338182X/ref=sr_1_42?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-42</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>McAfee Total Protection 2024 | 5 Devices | 15 Month Subscription | Cybersecurity software includes Antivirus, Secure VPN, Password Manager, Dark Web Monitoring | Amazon Exclusive | Download</t>
+          <t>The Software Engineer's Guidebook: Navigating senior, tech lead, and staff engineer positions at tech companies and startups</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>B0BZ2MBZK5</t>
+          <t>908338182X</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>32.99</v>
+        <v>34.19</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2625,18 +2619,18 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H52" t="n">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/614CALAsN7L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51oAA5ZfaNL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2644,21 +2638,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MjU4MTU3MzgzODM5NjAyOjE3MjU4ODk4NTE6c3BfbXRmOjIwMDAxNDQxNzgwMzg3MTo6MDo6&amp;url=%2FPMM-PLIB%2Fdp%2FB071798YC1%2Fref%3Dsr_1_43_sspa%3Fdib%3DeyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889851%26sr%3D8-43-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Eric-Matthes/dp/1718502702/ref=sr_1_43?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-43</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Individual Software Professor Teaches Online Library V.1 (3-Users) - Training for Office 2019 &amp; 2016 Apps, Windows 10 Tutorials, QuickBooks 2021 &amp; 2020 &amp; More!</t>
+          <t>Python Crash Course, 3rd Edition: A Hands-On, Project-Based Introduction to Programming</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>B071798YC1</t>
+          <t>1718502702</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>17.99</v>
+        <v>26.79</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2671,14 +2665,14 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H53" t="n">
-        <v>7</v>
+        <v>1218</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/818MAJM-ZbL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81ZBWeKoZVL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2686,21 +2680,21 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MjU4MTU3MzgzODM5NjAyOjE3MjU4ODk4NTE6c3BfbXRmOjMwMDM3MzIxMTA2MzcwMjo6MDo6&amp;url=%2Fdp%2FB0DB2J8SNL%2Fref%3Dsr_1_44_sspa%3Fdib%3DeyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889851%26sr%3D8-44-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Sandro-Mancuso/dp/0134052501/ref=sr_1_44?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-44</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VEGAS Pro 22 - All-in-one software for video, audio and post-production | video editing software | video cutting software | video editor | Windows 10/11 PC | 1 license</t>
+          <t>Software Craftsman, The: Professionalism, Pragmatism, Pride (Robert C. Martin Series)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>B0DB2J8SNL</t>
+          <t>0134052501</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>199</v>
+        <v>28.85</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2709,18 +2703,18 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>429</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51fcdkRkoaL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61Di1phUP5L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2728,21 +2722,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Charles-Petzold/dp/0137909101/ref=sr_1_45?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-45</t>
+          <t>https://www.amazon.com/-/es/HAJ-00108-Microsoft-Windows-11-USB/dp/B09V6R9QZZ/ref=sr_1_45?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-45</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Code: The Hidden Language of Computer Hardware and Software</t>
+          <t>Microsoft Windows 11 (USB)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0137909101</t>
+          <t>B09V6R9QZZ</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>24.72</v>
+        <v>134.99</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2751,40 +2745,42 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>300+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H55" t="n">
-        <v>582</v>
+        <v>991</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51F6JGR0ZfL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61fUMcLzmgL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B092JPRYXL/ref=sr_1_46?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-46</t>
+          <t>https://www.amazon.com/-/es/MAL951800F113/dp/B07PNFRCZS/ref=sr_1_46?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-46</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Music Software Bundle for Recording, Editing, Beat Making &amp; Production - DAW, VST Audio Plugins, Sounds for Mac &amp; Windows PC</t>
+          <t>Malwarebytes Premium Software | Amazon Exclusive | 18 Months, 2 Devices (Windows, Mac OS, Android, Apple iOS, Chrome) [software_key_card]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>B092JPRYXL</t>
+          <t>B07PNFRCZS</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>22.95</v>
+        <v>29.99</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2793,42 +2789,40 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H56" t="n">
-        <v>771</v>
+        <v>910</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81qVZNkHaJL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71rsrG965bL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Burning-Grabador-discos-captura-Descarga/dp/B088CFVMS8/ref=sr_1_47?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-47</t>
+          <t>https://www.amazon.com/-/es/dp/B07Q6ZPC1Q/ref=sr_1_47?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-47</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Roxio Easy CD &amp; DVD Burning 2 | Grabador de discos y captura de video [Descarga de PC]</t>
+          <t>Acrobat Pro | 1-Month Subscription | PDF Software |Convert, Edit, E-Sign, Protect |Activation Required [PC/Mac Online Code]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>B088CFVMS8</t>
+          <t>B07Q6ZPC1Q</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>30.49</v>
+        <v>29.99</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2841,14 +2835,14 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H57" t="n">
-        <v>484</v>
+        <v>1445</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/714XNwl0geL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/517ul+lt2GL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2856,21 +2850,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/antivirus-dispositivos-renovaci%C3%B3n-autom%C3%A1tica-seguridad/dp/B07Q8JGCSQ/ref=sr_1_48?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-48</t>
+          <t>https://www.amazon.com/-/es/Steven-Sinofsky-ebook/dp/B0CYBS9PFY/ref=sr_1_48?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-48</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Norton 360 Deluxe, 2023 Ready, software antivirus para 3 dispositivos con renovación automática, incluye VPN, copia de seguridad en la nube de PC y monitoreo web oscuro [descarga]</t>
+          <t>Hardcore Software: Inside the Rise and Fall of the PC Revolution</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>B07Q8JGCSQ</t>
+          <t>B0CYBS9PFY</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>19.99</v>
+        <v>9.99</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2879,18 +2873,18 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>5112</v>
+        <v>3</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71uuBMzSgrL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81FOzIYpUeL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -2898,21 +2892,21 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dispositivo-administrador-contrase%C3%B1as-Suscripci%C3%B3n-instant%C3%A1nea/dp/B0BB2P338G/ref=sr_1_49?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-49</t>
+          <t>https://www.amazon.com/-/es/Mark-Richards/dp/1492043451/ref=sr_1_49?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-49</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>McAfee Protección total 2023 | 1 dispositivo | Exclusivo de Amazon | Software de seguridad antivirus de Internet | VPN, administrador de contraseñas, monitoreo de web oscura | Suscripción de 1 año | Código de descarga instantánea</t>
+          <t>Fundamentals of Software Architecture: An Engineering Approach</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>B0BB2P338G</t>
+          <t>1492043451</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>15.99</v>
+        <v>43.99</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2921,18 +2915,18 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H59" t="n">
-        <v>241</v>
+        <v>971</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61NSgPX1zTL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/9193iMIxVTL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2940,22 +2934,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Protecci%C3%B3n-dispositivos-administrador-contrase%C3%B1as-Suscripci%C3%B3n/dp/B07BFS3G7P/ref=sr_1_50?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-50</t>
+          <t>https://www.amazon.com/-/es/Marca-nuevo-Corporation-Dazzle-Recorder/dp/B00EAS14KI/ref=sr_1_50?dib=eyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726760999&amp;sr=8-50</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>McAfee Protección total 2022 | 3 dispositivos | Software de seguridad antivirus de Internet | VPN, administrador de contraseñas, monitoreo de web oscura | Suscripción de 1 año | Código de descarga</t>
+          <t>Marca nuevo Corel Corporation Dazzle DVD Recorder HD</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>B07BFS3G7P</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>24.99</v>
-      </c>
+          <t>B00EAS14KI</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>Sin información</t>
@@ -2963,40 +2955,42 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
-        <v>14516</v>
+        <v>1640</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61PrVJYw-7L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61KdP+KMhJL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/HAJ-00108-Microsoft-Windows-11-USB/dp/B09V6R9QZZ/ref=sr_1_51?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-51</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MzkyNzg5NDU4Nzk4ODgyOjE3MjY3NjA5OTk6c3BfYnRmOjMwMDM3MzIxMTA2MzYwMjo6MDo6&amp;url=%2Fdp%2FB0DB88P9QQ%2Fref%3Dsr_1_51_sspa%3Fdib%3DeyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760999%26sr%3D8-51-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Microsoft Windows 11 (USB)</t>
+          <t>VEGAS Pro Suite 22 - All-in-one suite for video, audio and post-production | video editing software | video cutting software | video editor | Windows 10/11 PC | 1 license</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>B09V6R9QZZ</t>
+          <t>B0DB88P9QQ</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>134.99</v>
+        <v>249</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3005,42 +2999,40 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>300+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
-        <v>989</v>
+        <v>26</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61fUMcLzmgL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>300</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61-92J42XaL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Robert-C-Martin/dp/0132350882/ref=sr_1_52?dib=eyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889851&amp;sr=8-52</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo0MzkyNzg5NDU4Nzk4ODgyOjE3MjY3NjA5OTk6c3BfYnRmOjIwMDAxNDQxNzgwNDE3MTo6MDo6&amp;url=%2Fsoft916141%2Fdp%2FB07RGLV5HZ%2Fref%3Dsr_1_52_sspa%3Fdib%3DeyJ2IjoiMSJ9.8_B0_DS2K-gK-lbhC0QcukiXaKURX9z0ehekdo_MyiPUYAjzNAENPR6Y2JBB5Hioa_8jxibjLcjjDrCJmtp-IEYMaNghRnmlqg9YJX5-sI4WTpqGlo287AxiMMoz77qRqmwse7DQjT-NTpjt07supsZLKPjwHw2_lgIlJ2UDsoQ-syWaxHB8s4wovlssJD2rn9FR_Zw0tDPjl2XOGQBhdz7qNXdHJH09x3IesykDFtM.0RjoKEC_10ruX0nt8q3hmol9gQ4ABckt6FrjxBhmcsk%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726760999%26sr%3D8-52-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Clean Code: A Handbook of Agile Software Craftsmanship</t>
+          <t>Professor Teaches Office 2019 &amp; Windows 10 - Training Software for Microsoft Office &amp; Windows 10 Includes Interactive Training for Word, Excel, PowerPoint, Outlook, Access &amp; Publisher &amp; Windows 10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0132350882</t>
+          <t>B07RGLV5HZ</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>35.99</v>
+        <v>29.99</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3049,18 +3041,18 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
-        <v>6277</v>
+        <v>118</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51E2055ZGUL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81ga6+WaFUL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -3068,21 +3060,21 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MjU4MTU3MzgzODM5NjAyOjE3MjU4ODk4NTE6c3BfYnRmOjMwMDM3MzIxMTA2NDAwMjo6MDo6&amp;url=%2FVEGAS-Pro-Edit-21%2Fdp%2FB0CF256CSR%2Fref%3Dsr_1_53_sspa%3Fdib%3DeyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889851%26sr%3D8-53-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTI3NzY2MDE4NzMzOTI5OjE3MjY3NjEwMDg6c3BfYXRmX25leHQ6MjAwMDE5NTU1OTA1MDgxOjowOjo&amp;url=%2FBecome-Awesome-Software-Architect-Foundation%2Fdp%2F1697271065%2Fref%3Dsr_1_49_sspa%3Fdib%3DeyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761007%26sr%3D8-49-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>VEGAS Pro Edit 21 - The creative standard for video and audio | video editing software | video cutting software | video editor | Windows 10/11 PC | 1 license</t>
+          <t>Become an Awesome Software Architect: Book 1: Foundation 2019</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>B0CF256CSR</t>
+          <t>1697271065</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>159</v>
+        <v>44.56</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3091,18 +3083,18 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H63" t="n">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/711wFSI30sL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81G3yVLBeIL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -3110,21 +3102,21 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MjU4MTU3MzgzODM5NjAyOjE3MjU4ODk4NTE6c3BfYnRmOjMwMDM3MzIxMTA2MzkwMjo6MDo6&amp;url=%2FVEGAS-Pro-Suite-21%2Fdp%2FB0CF28MWL3%2Fref%3Dsr_1_54_sspa%3Fdib%3DeyJ2IjoiMSJ9.LXf0E8KC3uzhuGCpeNl-Lai6-0ckdNO01kYLa-5FQJDnpzZb3-lI60gu8T7XWSbgSnL8R8ibWfLyPjjWSqmw7FDBeFoDqQrFrC0uTrHxyMjSfwpiozQ4VmpYtuF5_z9v6les9ZXytTyqIJFfHqgfS4iN6mHeaPwh8zR9USk3X0mHeXi_dmyeuct4wgzfTWXdiVWPh71sKsW109cbVBFaMb9ehgoOIeLnc7-Ld3cfILI.pP60vipnjETbbai-wnQbHzNFldnyhcJS_1p_SwfKoq8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889851%26sr%3D8-54-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTI3NzY2MDE4NzMzOTI5OjE3MjY3NjEwMDg6c3BfYXRmX25leHQ6MzAwMzU1NDg0NDY0NzAyOjowOjo&amp;url=%2FMax-Clark%2Fdp%2FB0C1J1RK2T%2Fref%3Dsr_1_50_sspa%3Fdib%3DeyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761007%26sr%3D8-50-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>VEGAS Pro Suite 21 - Integrated video and audio editing tools for content creators | video editing software | video cutting software | video editor | Windows 10/11 PC | 1 license</t>
+          <t>Excel Made Easy: The Ultimate Crash Course to Master Excel Without Getting Overwhelmed – Secret Winning Formulas to Stand Out from the Crowd and Impress Your Boss</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>B0CF28MWL3</t>
+          <t>B0C1J1RK2T</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>199</v>
+        <v>17.95</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3133,18 +3125,18 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H64" t="n">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71+49e1Mw8L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61S2DQCzRhL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -3152,21 +3144,21 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MTE5NTkwMTI1NDYwMzgyOjE3MjU4ODk4Njk6c3BfYXRmX25leHQ6MzAwMzU1NDg0NDY0NzAyOjowOjo&amp;url=%2FMax-Clark%2Fdp%2FB0C1J1RK2T%2Fref%3Dsr_1_49_sspa%3Fdib%3DeyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889869%26sr%3D8-49-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B07SKCL7XX/ref=sr_1_51?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-51</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Excel Made Easy: The Ultimate Crash Course to Master Excel Without Getting Overwhelmed – Secret Winning Formulas to Stand Out from the Crowd and Impress Your Boss</t>
+          <t>DreamPlan Home Design and Landscaping Software Free for Windows [PC Download]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>B0C1J1RK2T</t>
+          <t>B07SKCL7XX</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>17.95</v>
+        <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3175,18 +3167,18 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
-        <v>409</v>
+        <v>815</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61S2DQCzRhL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/716awlCZToL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -3194,21 +3186,21 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MTE5NTkwMTI1NDYwMzgyOjE3MjU4ODk4Njk6c3BfYXRmX25leHQ6MzAwMjM1MDAyNDc4NTAyOjowOjo&amp;url=%2FKam-Knight%2Fdp%2F1957170107%2Fref%3Dsr_1_50_sspa%3Fdib%3DeyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889869%26sr%3D8-50-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Protecci%C3%B3n-antivirus-software-seguridad-suscripci%C3%B3n/dp/B0BB2N2YQ9/ref=sr_1_52?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-52</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Speed Reading: Learn to Read a 200+ Page Book in 1 Hour (Mental Performance)</t>
+          <t>McAfee Protección antivirus 2023 | 1 PC (Windows) | Protección antivirus, software de seguridad de Internet | 1 año de suscripción | Código de descarga</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1957170107</t>
+          <t>B0BB2N2YQ9</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>12.89</v>
+        <v>14.98</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3217,18 +3209,18 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H66" t="n">
-        <v>3263</v>
+        <v>758</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Csr6-EDdL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61Iy7n2u-jL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -3236,21 +3228,21 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B09BP6JWTQ/ref=sr_1_51?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-51</t>
+          <t>https://www.amazon.com/-/es/dp/B09C1RQQ2Z/ref=sr_1_53?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-53</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Soft Skills: The Software Developer's Life Manual</t>
+          <t>Norton 360 for Amazon 2024, Antivirus software for up to 5 Devices with Auto Renewal [Subscription]</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>B09BP6JWTQ</t>
+          <t>B09C1RQQ2Z</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>34.99</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3259,18 +3251,18 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>295</v>
+        <v>494</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71g+DfbhO4L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/710R2j7jEQL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -3278,21 +3270,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Robert-Martin-Arquitectura-limpia-estructura/dp/0134494164/ref=sr_1_52?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-52</t>
+          <t>https://www.amazon.com/-/es/Protecci%C3%B3n-dispositivos-administrador-contrase%C3%B1as-Suscripci%C3%B3n/dp/B07BFS3G7P/ref=sr_1_54?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-54</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[Robert C. Martin] Arquitectura limpia: Guía de un artesano para la estructura y el diseño del software (Serie Robert C. Martin) - Paperback</t>
+          <t>McAfee Protección total 2022 | 3 dispositivos | Software de seguridad antivirus de Internet | VPN, administrador de contraseñas, monitoreo de web oscura | Suscripción de 1 año | Código de descarga</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0134494164</t>
+          <t>B07BFS3G7P</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>43.27</v>
+        <v>24.99</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3305,14 +3297,14 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H68" t="n">
-        <v>3458</v>
+        <v>14520</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61r4tYVsRVL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61PrVJYw-7L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -3320,21 +3312,21 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Sound-Studio-prueba-gratis-Descargar/dp/B00MEOHGPW/ref=sr_1_53?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-53</t>
+          <t>https://www.amazon.com/-/es/Bruce-Buzbee/dp/1932932186/ref=sr_1_55?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-55</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sony Sound Forge Audio Studio 10- 30 días de prueba gratis [Descargar]</t>
+          <t>Getting the Most Out of RootsMagic 10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>B00MEOHGPW</t>
+          <t>1932932186</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.01</v>
+        <v>19.95</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3343,18 +3335,18 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="H69" t="n">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81Eo-qBWQ6L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61qh8JBqxHL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -3362,21 +3354,21 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CK7FN7DD/ref=sr_1_54?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-54</t>
+          <t>https://www.amazon.com/-/es/PaintShop-Ultimate-software-Creative-Descarga/dp/B0B7KFYQVK/ref=sr_1_56?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-56</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PC-TECH Compatible with Windows 10 Professional 64 Bit USB With Key. Factory fresh, Recover, Repair and Restore. Key code and USB install Included. Fix PC, Laptop and Desktop. Free Technical Support</t>
+          <t>Corel PaintShop Pro 2023 Ultimate | Potente software de edición de fotos y diseño gráfico + Creative Suite [Descarga de PC]</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>B0CK7FN7DD</t>
+          <t>B0B7KFYQVK</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>59.89</v>
+        <v>49.99</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3385,42 +3377,40 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H70" t="n">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81X5ex2cPnL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>200</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81hyRE69BDL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/PaintShop-Ultimate-software-Creative-Descarga/dp/B0B7KFYQVK/ref=sr_1_55?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-55</t>
+          <t>https://www.amazon.com/-/es/Cloudray-LightBurn-Software-G-Code-m%C3%A1quinas/dp/B0CQ846W5L/ref=sr_1_57?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-57</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Corel PaintShop Pro 2023 Ultimate | Potente software de edición de fotos y diseño gráfico + Creative Suite [Descarga de PC]</t>
+          <t>Cloudray LightBurn Software G-Code, para la mayoría de máquinas de grabado Blu-ray</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>B0B7KFYQVK</t>
+          <t>B0CQ846W5L</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>99.98999999999999</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3429,18 +3419,18 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H71" t="n">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81hyRE69BDL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51Yq6d+TOYL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -3448,21 +3438,21 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/VSAGUMLMBAM/dp/B0BSK32DL1/ref=sr_1_56?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-56</t>
+          <t>https://www.amazon.com/-/es/Burning-Grabador-discos-captura-Descarga/dp/B088CFVMS8/ref=sr_1_58?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-58</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Corel VideoStudio Ultimate 2023 | Video Editing Software with Premium Effects Collection | Slideshow Maker, Screen Recorder, DVD Burner [PC Key Card]</t>
+          <t>Roxio Easy CD &amp; DVD Burning 2 | Grabador de discos y captura de video [Descarga de PC]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>B0BSK32DL1</t>
+          <t>B088CFVMS8</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>44.98</v>
+        <v>19.99</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3471,18 +3461,18 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H72" t="n">
-        <v>95</v>
+        <v>485</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61lTeC8PGnL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/714XNwl0geL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -3490,21 +3480,21 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Dispositivos-ilimitados-Protecci%C3%B3n-privacidad-Suscripci%C3%B3n/dp/B0BB2M8Q79/ref=sr_1_57?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-57</t>
+          <t>https://www.amazon.com/-/es/Charles-Petzold/dp/0137909101/ref=sr_1_59?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-59</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>McAfee + Familia Premium 2023 | Dispositivos ilimitados | Seguridad premium | Monitoreo de identidad mejorado | Protección de privacidad en línea | Controles parentales | Suscripción de 1 año | Código de descarga</t>
+          <t>Code: The Hidden Language of Computer Hardware and Software</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>B0BB2M8Q79</t>
+          <t>0137909101</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>44.99</v>
+        <v>34.78</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3513,18 +3503,18 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H73" t="n">
-        <v>56</v>
+        <v>586</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61MRXR1UKYL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61Hc-9h+-XL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -3532,21 +3522,21 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/TI-84-Plus-Python-Calculadora-infinitamente/dp/B094Z8N8JS/ref=sr_1_58?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-58</t>
+          <t>https://www.amazon.com/-/es/dp/B0BX5939TV/ref=sr_1_60?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-60</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TI-84 Plus CE Python - Calculadora gráfica a color, infinitamente iris</t>
+          <t>Dragon Professional 16.0, Academic [PC Download]</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>B094Z8N8JS</t>
+          <t>B0BX5939TV</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>154.52</v>
+        <v>599</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3555,42 +3545,40 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4 K+ comprados el mes pasado</t>
+          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
-        <v>46191</v>
+        <v>5</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71+kU8OKi3L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>4000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71d13zNvxJL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MTE5NTkwMTI1NDYwMzgyOjE3MjU4ODk4Njk6c3BfbXRmOjIwMDAzMzA1OTc1MjA5ODo6MDo6&amp;url=%2Fdp%2FB07XHMXF8T%2Fref%3Dsr_1_59_sspa%3Fdib%3DeyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889869%26sr%3D8-59-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/John-Ousterhout/dp/173210221X/ref=sr_1_61?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-61</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Photo Commander 16 - Photo Editing &amp; Graphic Design Software for Windows 11, 10, 8.1, 7 - make your own photo collages, calendars and slideshows</t>
+          <t>A Philosophy of Software Design, 2nd Edition</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>B07XHMXF8T</t>
+          <t>173210221X</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>19.99</v>
+        <v>20.66</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3599,18 +3587,18 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
-        <v>200</v>
+        <v>2077</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71tCoN1eRLL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/711Qnv05eTL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3618,21 +3606,21 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07WFQSHC9/ref=sr_1_60?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-60</t>
+          <t>https://www.amazon.com/-/es/Software-Engineering-Google-Lessons-Programming/dp/1492082791/ref=sr_1_62?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-62</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AVG Ultimate 2024 | Antivirus+Cleaner+VPN | 10 Devices, 2 Year Subscription [Download]</t>
+          <t>Software Engineering at Google: Lessons Learned from Programming Over Time</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>B07WFQSHC9</t>
+          <t>1492082791</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>39.99</v>
+        <v>32.99</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3641,18 +3629,18 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H76" t="n">
-        <v>956</v>
+        <v>736</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61tO1pmJlRL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81bSa9px6qL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3660,21 +3648,21 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Norton-360-Platinum-2021-dispositivos/dp/B07VGCN1K2/ref=sr_1_61?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-61</t>
+          <t>https://www.amazon.com/-/es/Controlador-port%C3%A1til-alimentaci%C3%B3n-compatible-computadora/dp/B0CY232QBM/ref=sr_1_63?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-63</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Norton 360 Platinum 2021 - Software antivirus para 20 dispositivos con renovación automática - 3 meses GRATIS - Incluye VPN, copia de seguridad en la nube de PC y supervisión web oscura [Descargar]</t>
+          <t>Unitek Controlador de DVD externo USB C portátil CD/DVD +/-RW Drive/DVD con lector de tarjetas SD Hub USB 3.0 Hub USB C Puerto de alimentación CD ROM quemador compatible con computadora portátil PC de</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>B07VGCN1K2</t>
+          <t>B0CY232QBM</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>39.99</v>
+        <v>32.99</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3683,40 +3671,42 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
-        <v>2076</v>
+        <v>127</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71eJpfjaDLL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71jHTX2QJTL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/21389854/dp/B07QFXSQFP/ref=sr_1_62?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-62</t>
+          <t>https://www.amazon.com/-/es/WordPerfect-Standard-procesador-software-presentaci%C3%B3n/dp/B093P3S2XJ/ref=sr_1_64?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-64</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Norton 360 Deluxe 2024, Antivirus software for 3 Devices with Auto Renewal - Includes VPN, PC Cloud Backup &amp; Dark Web Monitoring [Key Card]</t>
+          <t>Corel WordPerfect Office Standard 2021 | Paquete de oficina de procesador de texto, hojas de cálculo y software de presentación [Descarga de PC]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>B07QFXSQFP</t>
+          <t>B093P3S2XJ</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>19.99</v>
+        <v>174.99</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3725,18 +3715,18 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
-        <v>2807</v>
+        <v>94</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71wzSyueOpL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61BDbl19LaL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3744,7 +3734,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/RTL-SDR-RTL2832U-definida-software-antena/dp/B0CD7558GT/ref=sr_1_63?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-63</t>
+          <t>https://www.amazon.com/-/es/RTL-SDR-RTL2832U-definida-software-antena/dp/B0CD7558GT/ref=sr_1_65?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-65</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3774,7 +3764,7 @@
         <v>4.5</v>
       </c>
       <c r="H79" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3788,21 +3778,21 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dispositivos-Administrador-contrase%C3%B1as-optimizador-rendimiento/dp/B07DDL3N69/ref=sr_1_64?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-64</t>
+          <t>https://www.amazon.com/-/es/dp/B092JPRYXL/ref=sr_1_66?dib=eyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761007&amp;sr=8-66</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Webroot Seguridad de Internet completa | Software antivirus 2023 | 5 dispositivos | Descarga de 1 año para PC/Mac/Chromebook/Android/IOS + Administrador de contraseñas, optimizador de rendimiento y copia de seguridad en la nube</t>
+          <t>Music Software Bundle for Recording, Editing, Beat Making &amp; Production - DAW, VST Audio Plugins, Sounds for Mac &amp; Windows PC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>B07DDL3N69</t>
+          <t>B092JPRYXL</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>31.99</v>
+        <v>22.95</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3811,40 +3801,42 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H80" t="n">
-        <v>1764</v>
+        <v>771</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61l3NZWVxwL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/81qVZNkHaJL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CFT56V4V/ref=sr_1_65?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-65</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTI3NzY2MDE4NzMzOTI5OjE3MjY3NjEwMDg6c3BfYnRmOjIwMDAzMzI3MDgzNzIzMTo6MDo6&amp;url=%2FRoland-Durareli-ebook%2Fdp%2FB089465YX1%2Fref%3Dsr_1_67_sspa%3Fdib%3DeyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761007%26sr%3D8-67-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>QUICKEN CLASSIC BUSINESS &amp; PERSONAL FOR NEW SUBSCRIBERS| 1 Year [PC Online code]</t>
+          <t>Eugenio, memorias de un informático. 10 verdades que ocurren en los proyectos (Spanish Edition)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>B0CFT56V4V</t>
+          <t>B089465YX1</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>129.99</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3853,18 +3845,18 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Edición en Español</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H81" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61u4I4HhNNL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81A+XTAq3pL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3872,21 +3864,21 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CJZT1MKY/ref=sr_1_66?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-66</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMTI3NzY2MDE4NzMzOTI5OjE3MjY3NjEwMDg6c3BfYnRmOjIwMDAyNjc5ODA1MDE1MTo6MDo6&amp;url=%2Fs917441%2Fdp%2FB0045WAF9U%2Fref%3Dsr_1_68_sspa%3Fdib%3DeyJ2IjoiMSJ9.T0X5KJVA5oafYbwje3acRyF4Gfo0w1zbeNK0Wtqc344i2Z5jres35wKMrdxwbFqnsm1VQ2zlkI_iyvQ4Sch17kXlA2wgB6fOR43IVet8qZtnDWcUxqSVosBewMZ5u8GqrapLGePJPcHDRBHa-JCLW1UCYreJfUeHlefwqq63brXOd8cLisTC2MUeGeumGkT6zTDJGRLrvQx12AgSj3Y2dITf56id4eta_AHSJ5K5GZE.eykSl0WFcOqUjhGrFaAMHqn6iLImhAEEofGOhgrYsSk%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761007%26sr%3D8-68-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Adobe | Photoshop Elements 2024 &amp; Premiere Elements 2024 | PC Code | Software Download | Photo Editing | Video Editing [PC Online code]</t>
+          <t>CheckBuilderPro - Windows &amp; Mac Check Printing Software</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>B0CJZT1MKY</t>
+          <t>B0045WAF9U</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>149.99</v>
+        <v>59.95</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3895,40 +3887,42 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
+        <v>473</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://m.media-amazon.com/images/I/61wr-Mm2qPL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
         <v>50</v>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81Z25rm2fUL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B078J67VNF/ref=sr_1_67?dib=eyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889869&amp;sr=8-67</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNjg2NzIzMTg2NzIwNTI2OjE3MjY3NjEwMTY6c3BfYXRmX25leHQ6MzAwMjM1MDkzOTIyMzAyOjowOjo&amp;url=%2FMintion-Lightburn-grabadora-inal%25C3%25A1mbrico-posicionamiento%2Fdp%2FB0CC8Z46B6%2Fref%3Dsr_1_65_sspa%3Fdib%3DeyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761016%26sr%3D8-65-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>The Complete Software Developer's Career Guide: How to Learn Programming Languages Quickly, Ace Your Programming Interview, and Land Your Software Developer Dream Job</t>
+          <t>Lightburn - Cámara para grabador láser, cámara grabadora láser, cámara láser mejorada, puente inalámbrico para software Lightburn, posicionamiento preciso, rastreo de imágenes, para xTool,</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>B078J67VNF</t>
+          <t>B0CC8Z46B6</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>149.99</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3937,18 +3931,18 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H83" t="n">
-        <v>1242</v>
+        <v>44</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/812o53YJWzL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61GxpDU31UL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3956,21 +3950,21 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MTE5NTkwMTI1NDYwMzgyOjE3MjU4ODk4Njk6c3BfYnRmOjMwMDE2NjA0NjY0NDEwMjo6MDo6&amp;url=%2FMAGIX-Video-Pro-X15-Intuitive%2Fdp%2FB0C8NDJJTD%2Fref%3Dsr_1_68_sspa%3Fdib%3DeyJ2IjoiMSJ9.0sasv0hGpVH-DlmQYBgt6itKJDFjjdmzlX8HL4rJLkpjRud951TvW_NhjG5o4z3eOFaatlQh3i7K30Qw_OQPYHekYKq1pO8hKDtv3JIyGueABD6NAl8GMBX5lt9l0_Az0XrEOC3ndQE8jeBqDqgNyp7wb9ey1-92NVqLizBYLv6AmkN-SwPOlmBb8NcWNjvx-fLbkc69qTzM1fNoYzyvsTLUJ5te3iJWORxp24h_hAg.z-EH_N3nvETAnYRq96GzbtIvkDkel_k49F8rSNVmF_M%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889869%26sr%3D8-68-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNjg2NzIzMTg2NzIwNTI2OjE3MjY3NjEwMTY6c3BfYXRmX25leHQ6MzAwMjI0MDE2NDEyODAyOjowOjo&amp;url=%2FLightburn-grabadora-posicionamiento-seguimiento-inal%25C3%25A1mbrico%2Fdp%2FB0D1C9RBJ7%2Fref%3Dsr_1_66_sspa%3Fdib%3DeyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761016%26sr%3D8-66-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MAGIX Video Pro X15: Intuitive video editing for advanced users | Video editing program | Video editor | Windows 10 / 11 | 1 PC download license</t>
+          <t>Cámara Lightburn, cámara grabadora láser, cámara láser Mintion mejorada para grabador láser, posicionamiento preciso, seguimiento de imágenes, puente inalámbrico para software Lightburn, monitor</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>B0C8NDJJTD</t>
+          <t>B0D1C9RBJ7</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>127</v>
+        <v>119.99</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3979,18 +3973,18 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Típico:</t>
         </is>
       </c>
       <c r="G84" t="n">
         <v>3.2</v>
       </c>
       <c r="H84" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/715B-JMax9L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51MqdTqp0wL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3998,21 +3992,21 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MTA2MTA5OTE0OTE1NzoxNzI1ODg5ODg5OnNwX2F0Zl9uZXh0OjIwMDE0MTI4ODY5NDY5ODo6MDo6&amp;url=%2FPDF2020FBA%2Fdp%2FB07YWKYZWD%2Fref%3Dsr_1_65_sspa%3Fdib%3DeyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889889%26sr%3D8-65-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B0CK7FN7DD/ref=sr_1_67?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-67</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PDF Extra Lifetime - Professional PDF Editor - Best Adobe Acrobat Pro Alternative - Lifetime License for Windows PC</t>
+          <t>PC-TECH Compatible with Windows 10 Professional 64 Bit USB With Key. Factory fresh, Recover, Repair and Restore. Key code and USB install Included. Fix PC, Laptop and Desktop. Free Technical Support</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>B07YWKYZWD</t>
+          <t>B0CK7FN7DD</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>99.98999999999999</v>
+        <v>59.89</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4021,42 +4015,42 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>200+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61JLg+27OSL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81X5ex2cPnL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MTA2MTA5OTE0OTE1NzoxNzI1ODg5ODg5OnNwX2F0Zl9uZXh0OjMwMDQwMjM3MzM3NTMwMjo6MDo6&amp;url=%2FMax-Clark%2Fdp%2FB0CYLHS68G%2Fref%3Dsr_1_66_sspa%3Fdib%3DeyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889889%26sr%3D8-66-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Robert-C-Martin/dp/0132350882/ref=sr_1_68?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-68</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>The Microsoft Office 365 Bible: The Complete and Easy-To-Follow Guide to Master the 9 Most In-Demand Microsoft Programs - Secret Tips &amp; Shortcuts to Stand out From the Crowd and Impress Your Boss</t>
+          <t>Clean Code: A Handbook of Agile Software Craftsmanship</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>B0CYLHS68G</t>
+          <t>0132350882</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>26.97</v>
+        <v>36.79</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4069,14 +4063,14 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H86" t="n">
-        <v>265</v>
+        <v>6284</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61a7YKF6tYL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51E2055ZGUL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -4084,21 +4078,21 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/empleados-dactilares-rastreador-asistencia-ilimitados/dp/B01N3TZT7F/ref=sr_1_67?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-67</t>
+          <t>https://www.amazon.com/-/es/dp/B07WHZPM2P/ref=sr_1_69?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-69</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Software de reloj de tiempo para empleados y escáner de huellas dactilares, rastreador de asistencia de tiempo, perfiles de usuario ilimitados, sin tarifas mensuales, incluido soporte y</t>
+          <t>Express Accounts Accounting Software Free [PC Download]</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>B01N3TZT7F</t>
+          <t>B07WHZPM2P</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4111,14 +4105,14 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
-        <v>47</v>
+        <v>731</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51a-+I3RanL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81gNCZkcLpL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -4126,21 +4120,21 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Protecci%C3%B3n-Dispositivos-administrador-contrase%C3%B1as-suscripci%C3%B3n/dp/B07BFRVMMN/ref=sr_1_68?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-68</t>
+          <t>https://www.amazon.com/-/es/Mark-Reed/dp/B0BRYWKKVJ/ref=sr_1_70?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-70</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>McAfee Protección total 2022 | Dispositivos ilimitados | Software de seguridad de Internet antivirus | VPN, administrador de contraseñas, controles parentales | 1 año de suscripción | Código de descarga</t>
+          <t>Python Programming and SQL: 5 books in 1 - The #1 Coding Course from Beginner to Advanced. Learn it Well &amp; Fast (2024) (Computer Programming)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>B07BFRVMMN</t>
+          <t>B0BRYWKKVJ</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>29.99</v>
+        <v>29.44</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4153,14 +4147,14 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H88" t="n">
-        <v>2690</v>
+        <v>334</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61BwbEYccGL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61jXSsH1M8L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -4168,21 +4162,21 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0BZ2K72LD/ref=sr_1_69?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-69</t>
+          <t>https://www.amazon.com/-/es/21389854/dp/B07QFXSQFP/ref=sr_1_71?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-71</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>McAfee Total Protection 2024 Ready | 3 Devices | 15 Month Subscription | Cybersecurity software includes Antivirus, Secure VPN, Password Manager, Dark Web Monitoring | Amazon Exclusive | Download</t>
+          <t>Norton 360 Deluxe 2024, Antivirus software for 3 Devices with Auto Renewal - Includes VPN, PC Cloud Backup &amp; Dark Web Monitoring [Key Card]</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>B0BZ2K72LD</t>
+          <t>B07QFXSQFP</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>27.99</v>
+        <v>29.99</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4191,18 +4185,18 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
-        <v>287</v>
+        <v>2812</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61E+VTq9d9L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71wzSyueOpL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -4210,21 +4204,21 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Webroot-Software-antivirus-dispositivos-descarga/dp/B07DDNL2BJ/ref=sr_1_70?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-70</t>
+          <t>https://www.amazon.com/-/es/dp/B07V2PQM6K/ref=sr_1_72?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-72</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Webroot Software antivirus 2023 | 3 dispositivos | 1 año de descarga para PC/Mac</t>
+          <t>Express Invoice Billing and Invoicing Software Free [PC Download]</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>B07DDNL2BJ</t>
+          <t>B07V2PQM6K</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>16.99</v>
+        <v>0</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4233,18 +4227,18 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H90" t="n">
-        <v>2895</v>
+        <v>475</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51gkAQmNelL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71FvUB2uS2L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -4252,21 +4246,21 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07SKCL7XX/ref=sr_1_71?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-71</t>
+          <t>https://www.amazon.com/-/es/Parallels-Desktop-Software-suscripci%C3%B3n-Download/dp/B0B8QRX8TN/ref=sr_1_73?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-73</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DreamPlan Home Design and Landscaping Software Free for Windows [PC Download]</t>
+          <t>Parallels Desktop 18 para Mac Pro Edition | Ejecuta Windows en Mac Virtual Machine Software | 1 año de suscripción [Mac Download]</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>B07SKCL7XX</t>
+          <t>B0B8QRX8TN</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>119.99</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4279,14 +4273,14 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H91" t="n">
-        <v>814</v>
+        <v>16</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/716awlCZToL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/7199dmazYtL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -4294,21 +4288,21 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Mark-Reed/dp/B0BRYWKKVJ/ref=sr_1_72?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-72</t>
+          <t>https://www.amazon.com/-/es/dp/B0CLCC3GSN/ref=sr_1_74?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-74</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Python Programming and SQL: 5 books in 1 - The #1 Coding Course from Beginner to Advanced. Learn it Well &amp; Fast (2024) (Computer Programming)</t>
+          <t>TurboTax Deluxe 2023 Tax Software, Federal Tax Return [Amazon Exclusive] [PC/Mac Download]</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>B0BRYWKKVJ</t>
+          <t>B0CLCC3GSN</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>29.44</v>
+        <v>59.99</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4317,18 +4311,18 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G92" t="n">
         <v>4.3</v>
       </c>
       <c r="H92" t="n">
-        <v>333</v>
+        <v>1729</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61jXSsH1M8L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61LncjXdK2L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -4336,21 +4330,21 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Erich-Gamma/dp/0201633612/ref=sr_1_73?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-73</t>
+          <t>https://www.amazon.com/-/es/dispositivos-Administrador-contrase%C3%B1as-optimizador-rendimiento/dp/B07DDJRW7Y/ref=sr_1_75?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-75</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Design Patterns: Elements of Reusable Object-Oriented Software</t>
+          <t>Webroot Seguridad de Internet completa | Software antivirus 2023 | 10 dispositivos | Descarga de 1 año para PC/Mac/Chromebook/Android/IOS + Administrador de contraseñas, optimizador de rendimiento y copia de seguridad en la nube</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0201633612</t>
+          <t>B07DDJRW7Y</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>43.74</v>
+        <v>39.99</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4359,18 +4353,18 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H93" t="n">
-        <v>2581</v>
+        <v>214</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81gtKoapHFL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71usJ80hjZL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -4378,21 +4372,21 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07WHZPM2P/ref=sr_1_74?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-74</t>
+          <t>https://www.amazon.com/-/es/Melia-Stevanovic/dp/B0C1JFQYCR/ref=sr_1_76?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-76</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Express Accounts Accounting Software Free [PC Download]</t>
+          <t>Behavioral Interviews for Software Engineers: All the Must-Know Questions With Proven Strategies and Answers That Will Get You the Job</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>B07WHZPM2P</t>
+          <t>B0C1JFQYCR</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>18.04</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4401,18 +4395,18 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H94" t="n">
-        <v>727</v>
+        <v>36</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81gNCZkcLpL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61+0s3HR--L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -4420,21 +4414,21 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MTA2MTA5OTE0OTE1NzoxNzI1ODg5ODg5OnNwX210ZjoyMDAxNzUyMjg3NTY4OTg6OjA6Og&amp;url=%2Fdp%2FB0C3DNGBLX%2Fref%3Dsr_1_75_sspa%3Fdib%3DeyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889889%26sr%3D8-75-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B078J67VNF/ref=sr_1_77?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-77</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Everplans - Software, Organize Will &amp; Trust, Vital Records, ID’s, Passwords, Finances, Medical, Health, Family, Loved Ones, Pets, Secure Digital Locker – 12-Month Subscription, Online/Win/Mac</t>
+          <t>The Complete Software Developer's Career Guide: How to Learn Programming Languages Quickly, Ace Your Programming Interview, and Land Your Software Developer Dream Job</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>B0C3DNGBLX</t>
+          <t>B078J67VNF</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4443,18 +4437,18 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H95" t="n">
-        <v>5</v>
+        <v>1241</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/710MlYoKhiL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/812o53YJWzL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -4462,21 +4456,21 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Microsoft-Office-Professional-Compra-Descargar/dp/B09HSCR294/ref=sr_1_76?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-76</t>
+          <t>https://www.amazon.com/-/es/TurboTax-Software-federal-electr%C3%B3nico-descarga/dp/B09FW199HB/ref=sr_1_78?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-78</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Microsoft Office Professional 2021 | Compra única para 1 PC | Descargar</t>
+          <t>TurboTax Deluxe 2021 Software fiscal federal y estatal con archivo electrónico federal [descarga de PC].</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>B09HSCR294</t>
+          <t>B09FW199HB</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>429.99</v>
+        <v>59.99</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4485,18 +4479,18 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H96" t="n">
-        <v>43</v>
+        <v>14112</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61YdKCt-66L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61bCNkxzYaL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -4504,21 +4498,21 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Eric-Matthes/dp/1718502702/ref=sr_1_77?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-77</t>
+          <t>https://www.amazon.com/-/es/empleados-dactilares-rastreador-asistencia-ilimitados/dp/B01N3TZT7F/ref=sr_1_79?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-79</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Python Crash Course, 3rd Edition: A Hands-On, Project-Based Introduction to Programming</t>
+          <t>Software de reloj de tiempo para empleados y escáner de huellas dactilares, rastreador de asistencia de tiempo, perfiles de usuario ilimitados, sin tarifas mensuales, incluido soporte y</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1718502702</t>
+          <t>B01N3TZT7F</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>26.79</v>
+        <v>159</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4527,18 +4521,18 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
-        <v>1210</v>
+        <v>47</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81ZBWeKoZVL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51a-+I3RanL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -4546,21 +4540,21 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0BX88HS2S/ref=sr_1_78?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-78</t>
+          <t>https://www.amazon.com/-/es/SMS13099ESD_TRIAL/dp/B00MEO1G08/ref=sr_1_80?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-80</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Dragon Professional 16.0, Upgrade from Dragon Professional 15.0 [PC Download]</t>
+          <t>Sony Movie Studio 13- 30 Day Free Trial [Download]</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>B0BX88HS2S</t>
+          <t>B00MEO1G08</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>349</v>
+        <v>0.01</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4569,18 +4563,18 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71NEFtrr2YL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/813NgbhuOdL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -4588,21 +4582,21 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0C9GBLZQ1/ref=sr_1_79?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-79</t>
+          <t>https://www.amazon.com/-/es/RTL-SDR-Radio-definida-software-RTL2832U/dp/B0CD745394/ref=sr_1_81?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-81</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NordVPN Standard – 2-Year - VPN &amp; Cybersecurity Software For 10 Devices – Block Malware, Malicious Links &amp; Ads, Protect Personal Information - PC/Mac/Mobile [Online Code]</t>
+          <t>Radio definida por software V4 R828D RTL2832U 1PPM TCXO SMA (solo donle)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>B0C9GBLZQ1</t>
+          <t>B0CD745394</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>104.99</v>
+        <v>31.95</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4611,40 +4605,42 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>500+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H99" t="n">
-        <v>434</v>
+        <v>315</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61LppCuU6tL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61uCnywe-WL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/RTL-SDR-Radio-definida-software-RTL2832U/dp/B0CD745394/ref=sr_1_80?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-80</t>
+          <t>https://www.amazon.com/-/es/dp/B0C7SPYJ11/ref=sr_1_82?dib=eyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761016&amp;sr=8-82</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Radio definida por software V4 R828D RTL2832U 1PPM TCXO SMA (solo donle)</t>
+          <t>FL Studio 21 Producer Edition and Waves Musicians 2 Bundle</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>B0CD745394</t>
+          <t>B0C7SPYJ11</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>31.95</v>
+        <v>199</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4653,42 +4649,42 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>500+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H100" t="n">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61uCnywe-WL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71-aGxaeKtL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07Q6ZPC1Q/ref=sr_1_81?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-81</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNjg2NzIzMTg2NzIwNTI2OjE3MjY3NjEwMTY6c3BfYnRmOjIwMDA3MjQ3MTA3MzM3MTo6MDo6&amp;url=%2FRaspberry-programaci%25C3%25B3n-Breadboard-principiantes-ingeniero%2Fdp%2FB096Z5FQLG%2Fref%3Dsr_1_83_sspa%3Fdib%3DeyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761016%26sr%3D8-83-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Acrobat Pro | 1-Month Subscription | PDF Software |Convert, Edit, E-Sign, Protect |Activation Required [PC/Mac Online Code]</t>
+          <t>GeeekPi Raspberry Pi Pico Micro Python Kit de programación con Raspberry Pi Pico, Breadboard, I2C 1602 Módulo de pantalla LCD para principiantes de Raspberry Pi e ingeniero de software</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>B07Q6ZPC1Q</t>
+          <t>B096Z5FQLG</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>29.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4697,40 +4693,42 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>100+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H101" t="n">
-        <v>1445</v>
+        <v>48</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/517ul+lt2GL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/716WixpE4tL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Martin-Kleppmann/dp/1449373321/ref=sr_1_82?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-82</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozNjg2NzIzMTg2NzIwNTI2OjE3MjY3NjEwMTY6c3BfYnRmOjIwMDA1NjYxMjI1NzM5ODo6MDo6&amp;url=%2FYubico-seguridad-autenticaci%25C3%25B3n-con%25C3%25A9ctese-certificado%2Fdp%2FB08DHL1YDL%2Fref%3Dsr_1_84_sspa%3Fdib%3DeyJ2IjoiMSJ9.rYTFb5ksJ_NO1h8iXn_g6ztYkn7b1aTJkO12fSeck4tBurMoX-sU8BDOvTTa0YuXwB_TbKjqGnsvClH8V2CsIOAMFfYLWpQ97uyoUmR-D43lwKTG0zIXOQ-tWxz3D9ed1Lvmx4Ypu2E_j9uZADkrgqzYqX2ERAHD7TvwVFH5d9w3B-tfZ1wLJoYTh_Ae-oiFKK-HuCQc2LgSvqZRx5N2nweqBEd3AhMiSKm0ovmtlzA.NZBzVs6xUWi3Wj-6h0AeU41WDOW6Ra_1UFW6EV3zhJE%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761016%26sr%3D8-84-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Designing Data-Intensive Applications: The Big Ideas Behind Reliable, Scalable, and Maintainable Systems</t>
+          <t>Yubico - YubiKey 5C NFC - Clave de seguridad de autenticación de dos factores (2FA), conéctese a través de USB-C o NFC, certificado FIDO - Proteja sus cuentas en línea</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1449373321</t>
+          <t>B08DHL1YDL</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>45.29</v>
+        <v>55</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4739,40 +4737,42 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>3 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H102" t="n">
-        <v>4878</v>
+        <v>16718</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91YfNb49PLL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61DEPifRyNL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/TurboTax-Premier-2022-Software-Exclusivo/dp/B0BH5NRLP3/ref=sr_1_83?dib=eyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889889&amp;sr=8-83</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMzE4MTAyMzQzMzE4OTUwOjE3MjY3NjEwMjU6c3BfYXRmX25leHQ6MzAwMjAyNjA2NjY3NzAyOjowOjo&amp;url=%2FAristides-Bouras%2Fdp%2FB0D4DGVP99%2Fref%3Dsr_1_81_sspa%3Fdib%3DeyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761025%26sr%3D8-81-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TurboTax Premier 2022 - Software fiscal federal y estatal, [Exclusivo de Amazon] [Descarga PC/MAC]</t>
+          <t>Visual Basic and Algorithmic Thinking for the Complete Beginner (3rd Edition): Learn to Think Like a Programmer</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>B0BH5NRLP3</t>
+          <t>B0D4DGVP99</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>104.99</v>
+        <v>49.99</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4781,18 +4781,18 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H103" t="n">
-        <v>4103</v>
+        <v>20</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Evk12-vJL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61xtU5nAuwL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -4800,21 +4800,21 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MTA2MTA5OTE0OTE1NzoxNzI1ODg5ODg5OnNwX2J0ZjozMDAxNTMwMDY1ODc0MDI6OjA6Og&amp;url=%2Fdp%2FB0CSDM7HWJ%2Fref%3Dsr_1_84_sspa%3Fdib%3DeyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889889%26sr%3D8-84-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMzE4MTAyMzQzMzE4OTUwOjE3MjY3NjEwMjU6c3BfYXRmX25leHQ6MzAwMDE1MTAwODIxNDAyOjowOjo&amp;url=%2Fdp%2FB0C3Z6XS3L%2Fref%3Dsr_1_82_sspa%3Fdib%3DeyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761025%26sr%3D8-82-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MAGIX Samplitude Music Studio X8 - Enter the world of MAGIX Pro Audio | Audio Software | Music Program | for Windows 10/11 PC | 1 Download License</t>
+          <t>Tech-Shop-pro Compatible Windows 10 Professional 64 Bit DVD. Install To Factory Fresh With Key Laptop and Desktop.Latest Update 21H1 No drivers needed Free Technical Support</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>B0CSDM7HWJ</t>
+          <t>B0C3Z6XS3L</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>89.98999999999999</v>
+        <v>55</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4823,40 +4823,42 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61q8yIdzOgL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/619m9eVSahL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3MTA2MTA5OTE0OTE1NzoxNzI1ODg5ODg5OnNwX2J0ZjozMDAyMzE2NTc5MTQ3MDI6OjA6Og&amp;url=%2FLightburn-Software-licencia-mayor%25C3%25ADa-grabadores%2Fdp%2FB0BQHGGLYF%2Fref%3Dsr_1_85_sspa%3Fdib%3DeyJ2IjoiMSJ9.cVgQm917mgjr2g69S_U9f6P_BO8DMB4mVP5QzhJ1h9HjoSRiYLYxNEh4Mn0VRbSSNlsb322h9HW52UDHt1_N1wkDfvFsAPYOeEG_e5dQ-tBY0LegsC25E6EHapGdEuZGrIOMeNf8ly-Q5yn-hEnV4fy70JIRgKNiOvi0CDd-g_1i4-fSI3Pt_lkNstszUEqVJVbozxtgUPN0G9kwqhKw535xrdPlUnw6wPsm4hpu4Vc.Will0h6M4w7QY8KK_HKAjCRgxdxdkirIhWCYJ0uoEMY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889889%26sr%3D8-85-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B09BP6JWTQ/ref=sr_1_83?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-83</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Lightburn Software - Clave de licencia Gcode, para la mayoría de grabadores láser de diodo en el mercado</t>
+          <t>Soft Skills: The Software Developer's Life Manual</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>B0BQHGGLYF</t>
+          <t>B09BP6JWTQ</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>60.99</v>
+        <v>0</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4865,42 +4867,40 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H105" t="n">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51YkUyGsP1L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71g+DfbhO4L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjYxNTcyMDExNTUwMjc5OjE3MjU4ODk5MDI6c3BfYXRmX25leHQ6MzAwMDE0MTM3MDgyMDAyOjowOjo&amp;url=%2FNathan-Clark%2Fdp%2F1719439559%2Fref%3Dsr_1_81_sspa%3Fdib%3DeyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889902%26sr%3D8-81-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Auriculares-USB-reconocimiento-micr%C3%B3fono-cancelaci%C3%B3n/dp/B013PXXVUE/ref=sr_1_84?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-84</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Computer Programming for Beginners: Fundamentals of Programming Terms and Concepts</t>
+          <t>Auriculares USB de reconocimiento de voz con micrófono de cancelación de ruido para software de reconocimiento de voz Nuance Dragon</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1719439559</t>
+          <t>B013PXXVUE</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>19.99</v>
+        <v>53.99</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4909,18 +4909,18 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Más opciones de compra</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
-        <v>493</v>
+        <v>389</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/613PdybBSQS._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61LiTjvv+QL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4928,21 +4928,21 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjYxNTcyMDExNTUwMjc5OjE3MjU4ODk5MDI6c3BfYXRmX25leHQ6MzAwMDMwMDAwOTA5NDAyOjowOjo&amp;url=%2FBoard-Certification-Genealogists%2Fdp%2F168442352X%2Fref%3Dsr_1_82_sspa%3Fdib%3DeyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889902%26sr%3D8-82-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B0C9G3C9KX/ref=sr_1_85?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-85</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Genealogy Standards Second Edition Revised</t>
+          <t>NordVPN Standard – 6-Month - VPN &amp; Cybersecurity Software For 10 Devices – Block Malware, Malicious Links &amp; Ads, Protect Personal Information - PC/Mac/Mobile [Online Code]</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>168442352X</t>
+          <t>B0C9G3C9KX</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>18.81</v>
+        <v>44.99</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4951,18 +4951,18 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
-        <v>786</v>
+        <v>436</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/91JmmLcbJwL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61z66hDL9EL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4970,21 +4970,21 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/John-Hales/dp/1423221699/ref=sr_1_83?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-83</t>
+          <t>https://www.amazon.com/-/es/dp/B0B72GCCS4/ref=sr_1_86?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-86</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Excel Formulas QuickStudy Laminated Study Guide (QuickStudy Computer)</t>
+          <t>Audacity® 2023 Newest Professional Pro Audio Music Recording Editing Software For Win 10,8,7,*Vista* And XP Mac OS X Linux Including Bonus Loops and Samples Collection</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1423221699</t>
+          <t>B0B72GCCS4</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5.95</v>
+        <v>19.85</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4993,18 +4993,18 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
-        <v>3844</v>
+        <v>59</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71Y6yCOanNL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61omVNBw7yL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -5012,21 +5012,21 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/395982825X/ref=sr_1_84?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-84</t>
+          <t>https://www.amazon.com/-/es/dp/B06XHS8HDM/ref=sr_1_87?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-87</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AVCHD Video Converter: Edit and Convert Files from over 50 Formats into any Video or Audio Format - Great Program for Video Cutting</t>
+          <t>VideoPad Video Editor Free - Create Stunning Movies and Videos with Effects and Transitions [Download]</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>395982825X</t>
+          <t>B06XHS8HDM</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>24.99</v>
+        <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5039,14 +5039,14 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H109" t="n">
-        <v>152</v>
+        <v>1002</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81AI0wmKSAL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/810xsDCJ4eL._AC_UY218_.png</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -5054,21 +5054,21 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B00P04HAIQ/ref=sr_1_85?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-85</t>
+          <t>https://www.amazon.com/-/es/Mauricio-Aniche/dp/1633439933/ref=sr_1_88?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-88</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Free Point of Sales Software for Mac [Download]</t>
+          <t>Effective Software Testing: A developer's guide</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>B00P04HAIQ</t>
+          <t>1633439933</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>44.39</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5081,14 +5081,14 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H110" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71HSugLRa6L._AC_UY218_.png</t>
+          <t>https://m.media-amazon.com/images/I/71YWAJzRTNL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -5096,21 +5096,21 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Daniel-Jackson-ebook/dp/B09DTR6F22/ref=sr_1_86?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-86</t>
+          <t>https://www.amazon.com/-/es/dp/B0823GT5JG/ref=sr_1_89?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-89</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>The Essence of Software: Why Concepts Matter for Great Design</t>
+          <t>iFit Train - Monthly Membership</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>B09DTR6F22</t>
+          <t>B0823GT5JG</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>14.37</v>
+        <v>15</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5119,18 +5119,18 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
-        <v>35</v>
+        <v>554</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/711LpQQe2LS._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/518nPPYk0iL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -5138,21 +5138,21 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B083F3JKNN/ref=sr_1_87?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-87</t>
+          <t>https://www.amazon.com/-/es/dp/B08C81ZCXX/ref=sr_1_90?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-90</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ralix Reinstall DVD For Windows 10 All Versions 32/64 bit. Recover, Restore, Repair Boot Disc, and Install to Factory Default will Fix PC Easy!</t>
+          <t>Norton 360 for Gamers 2024, Multiple layers of protection for up to 3 Devices – Includes Game Optimizer, Gamer tag monitoring, Secure VPN and PC Cloud Backup [Download]</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>B083F3JKNN</t>
+          <t>B08C81ZCXX</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>11.99</v>
+        <v>19.99</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5161,38 +5161,36 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>300+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H112" t="n">
-        <v>2952</v>
+        <v>846</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81qiOJgx8AL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J112" t="n">
-        <v>300</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71HpFSjjdKL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07XW27GDY/ref=sr_1_88?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-88</t>
+          <t>https://www.amazon.com/-/es/dp/B0D9HYGCLQ/ref=sr_1_91?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-91</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PrintMaster v8 Platinum [PC Download]</t>
+          <t>NordVPN Basic – 1-Year – Premium VPN Protection For Up to 10 Devices – Secure Your Traffic Data &amp; Shield Your IP – PC/Mac/Mobile [Online Code]</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>B07XW27GDY</t>
+          <t>B0D9HYGCLQ</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -5205,18 +5203,18 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H113" t="n">
-        <v>512</v>
+        <v>436</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51NXpdKGEKL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61SkReGU0dL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -5224,21 +5222,21 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/ESDCDGS2024ML/dp/B0CW7KTLX9/ref=sr_1_89?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-89</t>
+          <t>https://www.amazon.com/-/es/clonaci%C3%B3n-software-actualizaciones-Software-Adaptador/dp/B07SW211KV/ref=sr_1_92?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-92</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CorelDRAW Graphics Suite 2024 | Graphic Design Software for Professionals | Vector Illustration, Layout, and Image Editing | [PC/Mac Download]</t>
+          <t>NTI Kit de clonación | Versión 6 del software de clonación NTI | Lo mejor para actualizaciones de SSD y HDD | Software V6 a través de descarga | Adaptador SATA a USB incluido para SSD y HDD de 2.5</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>B0CW7KTLX9</t>
+          <t>B07SW211KV</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>399.99</v>
+        <v>39.99</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5247,40 +5245,42 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>836</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61DMMooyX0L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/51jx0c58qkL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dvd903253/dp/3959828241/ref=sr_1_90?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-90</t>
+          <t>https://www.amazon.com/-/es/dp/B00PT6GQY4/ref=sr_1_93?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-93</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Office Suite 2024 Special Edition for Windows 11-10-8-7-Vista-XP | PC Software and 1.000 New Fonts | Alternative to Microsoft Office | Compatible with Word, Excel and PowerPoint</t>
+          <t>LibreOffice v4.3 for PC [Open Source Download]</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3959828241</t>
+          <t>B00PT6GQY4</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5296,11 +5296,11 @@
         <v>4</v>
       </c>
       <c r="H115" t="n">
-        <v>1530</v>
+        <v>823</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/715vGJTd+lL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41uovfMTo7L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -5308,21 +5308,21 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjYxNTcyMDExNTUwMjc5OjE3MjU4ODk5MDI6c3BfbXRmOjIwMDA0NDgwMjUyODM5ODo6MDo6&amp;url=%2Fdp%2FB09VZJ6MQC%2Fref%3Dsr_1_91_sspa%3Fdib%3DeyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889902%26sr%3D8-91-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Creator-multimedia-software-grabaci%C3%B3n-descarga/dp/B09JLGB66R/ref=sr_1_94?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-94</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Home design software compatible with Windows 11, 10, 8.1, 7 - Plan and design buildings from initial rough sketches to the finished blueprints - 3D CAD 8 Architecture</t>
+          <t>Roxio Creator NXT 9 | Suite multimedia y software de grabación de discos CD/DVD [descarga de PC]</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>B09VZJ6MQC</t>
+          <t>B09JLGB66R</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>29.99</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -5331,18 +5331,18 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H116" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71X9ATYP9hL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71j5bJEWdPL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -5350,21 +5350,21 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjYxNTcyMDExNTUwMjc5OjE3MjU4ODk5MDI6c3BfbXRmOjIwMDA4Njc1NzE0NDM5ODo6MDo6&amp;url=%2Fdp%2FB0BDZDWQFZ%2Fref%3Dsr_1_92_sspa%3Fdib%3DeyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889902%26sr%3D8-92-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B07QHLRL1H/ref=sr_1_95?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-95</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Home design and 3D construction software compatible with Windows 11, 10, 8.1, 7 – Home planning from blueprints to interior design - 3D CAD 9 Professional</t>
+          <t>Laplink PCmover Professional | Instant Download | Single Use License | Moves Applications, Files, and Settings to Your New PC</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>B0BDZDWQFZ</t>
+          <t>B07QHLRL1H</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>69.98999999999999</v>
+        <v>39.95</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5373,18 +5373,18 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H117" t="n">
-        <v>22</v>
+        <v>1090</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81Mc-6gQ+FL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81wHLB1TuAL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -5392,21 +5392,21 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Kristin-Jackvony-ebook/dp/B09NGVVCJ9/ref=sr_1_93?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-93</t>
+          <t>https://www.amazon.com/-/es/dp/B0CD35679L/ref=sr_1_96?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-96</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>The Complete Software Tester: Concepts, Skills, and Strategies for High-Quality Testing</t>
+          <t>NordVPN Complete - 1-Year - VPN &amp; Cybersecurity Software Bundle — Block Online Threats, Manage Passwords, and Store Files in Secure Cloud Storage - PC/Mac/Mobile [Online Code]</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>B09NGVVCJ9</t>
+          <t>B0CD35679L</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>49.99</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -5415,18 +5415,18 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H118" t="n">
-        <v>72</v>
+        <v>436</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81sae33jjLL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61Xdw5jRkQL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -5434,21 +5434,21 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Bruce-Buzbee/dp/1932932186/ref=sr_1_94?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-94</t>
+          <t>https://www.amazon.com/-/es/Erich-Gamma/dp/0201633612/ref=sr_1_97?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-97</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Getting the Most Out of RootsMagic 10</t>
+          <t>Design Patterns: Elements of Reusable Object-Oriented Software</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1932932186</t>
+          <t>0201633612</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>19.95</v>
+        <v>62.16</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -5461,14 +5461,14 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H119" t="n">
-        <v>88</v>
+        <v>2586</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61qh8JBqxHL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81YsHe4woRL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -5476,21 +5476,21 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Lightburn-Software-licencia-mayor%C3%ADa-grabadores/dp/B0BQHGGLYF/ref=sr_1_95?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-95</t>
+          <t>https://www.amazon.com/-/es/Steve-Klabnik/dp/1718503105/ref=sr_1_98?dib=eyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761025&amp;sr=8-98</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lightburn Software - Clave de licencia Gcode, para la mayoría de grabadores láser de diodo en el mercado</t>
+          <t>The Rust Programming Language, 2nd Edition</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>B0BQHGGLYF</t>
+          <t>1718503105</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>60.99</v>
+        <v>29.99</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -5499,42 +5499,40 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H120" t="n">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51YkUyGsP1L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71SlLVGcg-L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Mark-Reed/dp/B0C1J1XLJT/ref=sr_1_96?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-96</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMzE4MTAyMzQzMzE4OTUwOjE3MjY3NjEwMjU6c3BfYnRmOjIwMDAyMTkxMzcyMTc3MTo6MDo6&amp;url=%2Fdp%2FB0856VH9HT%2Fref%3Dsr_1_99_sspa%3Fdib%3DeyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761025%26sr%3D8-99-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C# &amp; C++: 5 Books in 1 - The #1 Coding Course from Beginner to Advanced (2024) (Computer Programming)</t>
+          <t>Professor Teaches Super Set -26 Course Tutorial Set</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>B0C1J1XLJT</t>
+          <t>B0856VH9HT</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>34.19</v>
+        <v>49.99</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5543,18 +5541,18 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="H121" t="n">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61wHW8GkfXL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/713dHai0aCL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -5562,21 +5560,21 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/SMS13099ESD_TRIAL/dp/B00MEO1G08/ref=sr_1_97?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-97</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MToyMzE4MTAyMzQzMzE4OTUwOjE3MjY3NjEwMjU6c3BfYnRmOjMwMDI0ODI2ODAyNjAwMjo6MDo6&amp;url=%2FCDEAGEFMBAM-AZ%2Fdp%2FB0CV9LSBB8%2Fref%3Dsr_1_100_sspa%3Fdib%3DeyJ2IjoiMSJ9.07xiUaFfMTQsXcMKzQMgU0EKK9Yq19bfz7r7WWPgyGuV3bUFVAsRlGOGZOxL0WzKZs8qz2jeShwrxU1juPITb7FkToH_YedKIvFuwgUOy3hATaSX_DlA8X30XlZVWLG4wmyGI5D_MSt3a9RNLQpVuNlG7r0Pj0po14dF4ebdvlSDVw5G17KBkiRotuuXVEpJQLu9HWQdRmiz232dWGtKMa7MAP9UuMlfreReXXx6tBE.Jg3F0zv2jvFtyUymGzWU2bVWQa0Ih9ffSnuhM83BX_8%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761025%26sr%3D8-100-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sony Movie Studio 13- 30 Day Free Trial [Download]</t>
+          <t>CorelDRAW Essentials 2024 | Graphics Design Software for Occasional Users | Illustration, Layout, and Photo Editing [PC Key Card]</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>B00MEO1G08</t>
+          <t>B0CV9LSBB8</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.01</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5585,18 +5583,18 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H122" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/813NgbhuOdL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51Vxa-8ME9L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -5604,21 +5602,21 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B083DZWWXN/ref=sr_1_98?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-98</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozOTM1MjQ1OTU2NDU2MTYyOjE3MjY3NjEwMzQ6c3BfYXRmX25leHQ6MjAwMDE0NDE3ODA0MDcxOjowOjo&amp;url=%2Fdp%2FB07RJTCYVW%2Fref%3Dsr_1_97_sspa%3Fdib%3DeyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761034%26sr%3D8-97-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Audio Converter - Edit and convert your sound and music files to other audio formats - easy audio editing software - compatible with Windows 10, 8 and 7</t>
+          <t>Professor Teaches Office 2019 - Interactive Training for Word, Excel, PowerPoint, Outlook, Access, Publisher &amp; More! - CD/DVD</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>B083DZWWXN</t>
+          <t>B07RJTCYVW</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>19.99</v>
+        <v>28.99</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5631,14 +5629,14 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H123" t="n">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/813yCxUnaUL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81M7ccqSmfL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -5646,21 +5644,21 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Linux-Programming-Interface-System-Handbook/dp/1593272200/ref=sr_1_99?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-99</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozOTM1MjQ1OTU2NDU2MTYyOjE3MjY3NjEwMzQ6c3BfYXRmX25leHQ6MjAwMTI1NTU5NDYxMjk4OjowOjo&amp;url=%2Fempleados-peque%25C3%25B1as-biom%25C3%25A9trico-dactilares-profesional%2Fdp%2FB0BNPT4LQ1%2Fref%3Dsr_1_98_sspa%3Fdib%3DeyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761034%26sr%3D8-98-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>The Linux Programming Interface: A Linux and UNIX System Programming Handbook</t>
+          <t>ANVIZ Relojes de tiempo para empleados pequeñas empresas, reloj biométrico de huellas dactilares CX2 con software profesional en la nube, color negro</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1593272200</t>
+          <t>B0BNPT4LQ1</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>63.92</v>
+        <v>179.99</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5669,40 +5667,42 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="H124" t="n">
-        <v>709</v>
+        <v>83</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71kj6C0TNdL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71zzIAgqehL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CFSX431Z/ref=sr_1_100?dib=eyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889902&amp;sr=8-100</t>
+          <t>https://www.amazon.com/-/es/Raju-Gandhi/dp/1098134354/ref=sr_1_99?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-99</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Quicken Classic Deluxe for New Subscribers| 1 Year [PC/Mac Online Code]</t>
+          <t>Head First Software Architecture: A Learner's Guide to Architectural Thinking</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>B0CFSX431Z</t>
+          <t>1098134354</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>69.98999999999999</v>
+        <v>56.99</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5711,18 +5711,18 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H125" t="n">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61ypcFpjCuL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81DrluSWXKL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -5730,21 +5730,21 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjYxNTcyMDExNTUwMjc5OjE3MjU4ODk5MDI6c3BfYnRmOjMwMDA4NTc3OTA1MzcwMjo6MDo6&amp;url=%2Fdp%2FB0CM4F111Z%2Fref%3Dsr_1_101_sspa%3Fdib%3DeyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889902%26sr%3D8-101-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B07QHLRL1H/ref=sr_1_100?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-100</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Tech-Shop-pro install Key Included USB For Windows 11 Home Version 32/64 bit. Recover, Restore, Repair Boot USB, and Install to Factory Default Fast and easy Free Technical Support.</t>
+          <t>Laplink PCmover Professional | Instant Download | Single Use License | Moves Applications, Files, and Settings to Your New PC</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>B0CM4F111Z</t>
+          <t>B07QHLRL1H</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>59</v>
+        <v>39.95</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5753,42 +5753,40 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H126" t="n">
-        <v>27</v>
+        <v>1090</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71HHcF-XFtL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81wHLB1TuAL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo2NjYxNTcyMDExNTUwMjc5OjE3MjU4ODk5MDI6c3BfYnRmOjMwMDM3MzIxMTA2MzYwMjo6MDo6&amp;url=%2Fdp%2FB0DB88P9QQ%2Fref%3Dsr_1_102_sspa%3Fdib%3DeyJ2IjoiMSJ9.gR9k14ZCGWdhbBqeQVGt-SVzP_SipUqbtiPByDr8Jul-YKtl0rxa5hs3Chc3eFcgyySWBmWsxuBYr6AUto2U8lRtCUjUvMRB9iWINTfEFB9gw3eJqhPf8DLe05ezGmVPVLhh7kAld1JLduEQCCUYjJqbIc5Oj0YxLXmuKMW72-1rDMQwS-fdjvF1V9YcHBLlb9nXhjUikcTfE1vvpPYtXQBKBwTMe6uR8WXdjMwQaIo.t5YJewbx2FRntGsy_xJFzOv9JQzlTyagIFWHkiFt7IY%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889902%26sr%3D8-102-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Erich-Gamma/dp/0201633612/ref=sr_1_101?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-101</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>VEGAS Pro Suite 22 - All-in-one suite for video, audio and post-production | video editing software | video cutting software | video editor | Windows 10/11 PC | 1 license</t>
+          <t>Design Patterns: Elements of Reusable Object-Oriented Software</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>B0DB88P9QQ</t>
+          <t>0201633612</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>249</v>
+        <v>62.16</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5797,18 +5795,18 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H127" t="n">
-        <v>6</v>
+        <v>2586</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61-92J42XaL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81YsHe4woRL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -5816,21 +5814,21 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDY3Nzk1NTc2MjE0MjUyOjE3MjU4ODk5MTc6c3BfYXRmX25leHQ6MjAwMDg3ODgxOTIyNjk4OjowOjo&amp;url=%2FXS-qb-83%2Fdp%2FB092M55HJ2%2Fref%3Dsr_1_97_sspa%3Fdib%3DeyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889917%26sr%3D8-97-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B008XAXAC4/ref=sr_1_103?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-103</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mullvad VPN | 5 Devices for 6 Months | Protect Your Privacy with Easy-To-Use Security VPN Service</t>
+          <t>Apache OpenOffice 4.0.1 [Open Source Download]</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>B092M55HJ2</t>
+          <t>B008XAXAC4</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5839,42 +5837,40 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>400+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H128" t="n">
-        <v>772</v>
+        <v>1709</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61+MBtXYA1L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
-        <v>400</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/41XRri0F5fL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDY3Nzk1NTc2MjE0MjUyOjE3MjU4ODk5MTc6c3BfYXRmX25leHQ6MzAwMDgyMTA4NjkyMTAyOjowOjo&amp;url=%2Fdp%2FB0CJLXG4FF%2Fref%3Dsr_1_98_sspa%3Fdib%3DeyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889917%26sr%3D8-98-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/John-Hales/dp/1423221699/ref=sr_1_105?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-105</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Digital Cut - Objects and Persons Remover from photos - Image editor for Win 11, 10</t>
+          <t>Excel Formulas QuickStudy Laminated Study Guide (QuickStudy Computer)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>B0CJLXG4FF</t>
+          <t>1423221699</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>19.99</v>
+        <v>5.95</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5883,18 +5879,18 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H129" t="n">
-        <v>9</v>
+        <v>3865</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71QoYouykaL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71Y6yCOanNL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -5902,21 +5898,21 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0C7SPYJ11/ref=sr_1_99?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-99</t>
+          <t>https://www.amazon.com/-/es/Robert-Martin-Arquitectura-limpia-estructura/dp/0134494164/ref=sr_1_106?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-106</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FL Studio 21 Producer Edition and Waves Musicians 2 Bundle</t>
+          <t>[Robert C. Martin] Arquitectura limpia: Guía de un artesano para la estructura y el diseño del software (Serie Robert C. Martin) - Paperback</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>B0C7SPYJ11</t>
+          <t>0134494164</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>199</v>
+        <v>43.27</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5925,42 +5921,40 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H130" t="n">
-        <v>39</v>
+        <v>3465</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71-aGxaeKtL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>50</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61r4tYVsRVL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Calculadora-gr%C3%A1fica-TI-Nspire-software-estudiantes/dp/B07SDG5719/ref=sr_1_100?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-100</t>
+          <t>https://www.amazon.com/-/es/dp/B083DZWWXN/ref=sr_1_107?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-107</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Calculadora gráfica TI-Nspire CX II a color con software para estudiantes</t>
+          <t>Audio Converter - Edit and convert your sound and music files to other audio formats - easy audio editing software - compatible with Windows 10, 8 and 7</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>B07SDG5719</t>
+          <t>B083DZWWXN</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>127.99</v>
+        <v>19.99</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5969,42 +5963,40 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>10 K+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H131" t="n">
-        <v>3569</v>
+        <v>173</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71uxevbHzGL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>10000</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/813yCxUnaUL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Karl-Wiegers/dp/0735679665/ref=sr_1_101?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-101</t>
+          <t>https://www.amazon.com/-/es/dp/B09VR76S5B/ref=sr_1_108?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-108</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Software Requirements (Developer Best Practices)</t>
+          <t>Steinberg Cubase 13 Elements - Accessible Music Production Software for PC/Mac</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0735679665</t>
+          <t>B09VR76S5B</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>35.53</v>
+        <v>50</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6013,18 +6005,18 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Típico:</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H132" t="n">
-        <v>315</v>
+        <v>10</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/613QIIAw52L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/41fUqBZPqKL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -6032,21 +6024,21 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Catherine-Nelson/dp/1098136209/ref=sr_1_102?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-102</t>
+          <t>https://www.amazon.com/-/es/dp/B07RQMXPV3/ref=sr_1_109?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-109</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Software Engineering for Data Scientists: From Notebooks to Scalable Systems</t>
+          <t>Crescendo Professional Edition [PC Online code]</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1098136209</t>
+          <t>B07RQMXPV3</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>52.99</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6055,18 +6047,18 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H133" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81UICijjY6L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/511E2BXaMfL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -6074,21 +6066,21 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Auriculares-USB-reconocimiento-micr%C3%B3fono-cancelaci%C3%B3n/dp/B013PXXVUE/ref=sr_1_103?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-103</t>
+          <t>https://www.amazon.com/-/es/dp/B0CWMNVG2S/ref=sr_1_110?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-110</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Auriculares USB de reconocimiento de voz con micrófono de cancelación de ruido para software de reconocimiento de voz Nuance Dragon</t>
+          <t>Wyze Security Plan - Cam Unlimited | Unlimited Cameras | 12 months Subscription. Full AI features | Facial Recognition for Friendly Faces | Smart Detection for Person, Pet, Package, Vehicle and Glass Break | Security Surveillance and Monitoring | Rolling 14 Days Event Video Recording | Activation Required | Cancel Anytime</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>B013PXXVUE</t>
+          <t>B0CWMNVG2S</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>53.99</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6097,18 +6089,18 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Más opciones de compra</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H134" t="n">
-        <v>389</v>
+        <v>88</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61LiTjvv+QL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61UfSQloi-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -6116,21 +6108,21 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B09C1RQQ2Z/ref=sr_1_105?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-105</t>
+          <t>https://www.amazon.com/-/es/Lightburn-Software-licencia-mayor%C3%ADa-grabadores/dp/B0BQHGGLYF/ref=sr_1_111?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-111</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Norton 360 for Amazon 2024, Antivirus software for up to 5 Devices with Auto Renewal [Subscription]</t>
+          <t>Lightburn Software - Clave de licencia Gcode, para la mayoría de grabadores láser de diodo en el mercado</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>B09C1RQQ2Z</t>
+          <t>B0BQHGGLYF</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>34.99</v>
+        <v>60.99</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -6139,40 +6131,42 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>PVPR:</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H135" t="n">
-        <v>489</v>
+        <v>159</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/710R2j7jEQL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/51YkUyGsP1L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CLCC3GSN/ref=sr_1_106?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-106</t>
+          <t>https://www.amazon.com/-/es/dp/B06XHD3478/ref=sr_1_112?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-112</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TurboTax Deluxe 2023 Tax Software, Federal Tax Return [Amazon Exclusive] [PC/Mac Download]</t>
+          <t>Pixillion Free Image File Converter - Convert JPG, PDF, PNG, GIF, and Many Other File Formats [Download]</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>B0CLCC3GSN</t>
+          <t>B06XHD3478</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>59.99</v>
+        <v>0</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6185,14 +6179,14 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H136" t="n">
-        <v>1717</v>
+        <v>357</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61LncjXdK2L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81CmqhfxBAL._AC_UY218_.png</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -6200,21 +6194,21 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDY3Nzk1NTc2MjE0MjUyOjE3MjU4ODk5MTc6c3BfbXRmOjMwMDA3NDU0MTU2ODcwMjo6MDo6&amp;url=%2Fdp%2FB0CFZVYDC4%2Fref%3Dsr_1_107_sspa%3Fdib%3DeyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889917%26sr%3D8-107-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9tdGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Mark-Reed/dp/B0C1J1XLJT/ref=sr_1_113?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-113</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Adobe Photoshop Elements 2024 and Premiere Elements 2024 Student &amp; Teacher Edition | Box with Download Code</t>
+          <t>C# &amp; C++: 5 Books in 1 - The #1 Coding Course from Beginner to Advanced (2024) (Computer Programming)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>B0CFZVYDC4</t>
+          <t>B0C1J1XLJT</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>79.98999999999999</v>
+        <v>34.19</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6223,18 +6217,18 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="H137" t="n">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81feKo27qcL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61wHW8GkfXL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -6242,21 +6236,21 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Adobe-Photoshop-Elements-2024-Download/dp/B0CFZLNWM1/ref=sr_1_108?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-108</t>
+          <t>https://www.amazon.com/-/es/dp/B0CFT56V4V/ref=sr_1_114?dib=eyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761034&amp;sr=8-114</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Adobe Photoshop Elements 2024 | Box with Download Code</t>
+          <t>QUICKEN CLASSIC BUSINESS &amp; PERSONAL FOR NEW SUBSCRIBERS| 1 Year [PC Online code]</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>B0CFZLNWM1</t>
+          <t>B0CFT56V4V</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>99.98999999999999</v>
+        <v>77.93000000000001</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -6269,14 +6263,14 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H138" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81NusM4VaCL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61u4I4HhNNL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -6284,21 +6278,21 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/WordPerfect-Standard-procesador-software-presentaci%C3%B3n/dp/B093P3S2XJ/ref=sr_1_109?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-109</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTozOTM1MjQ1OTU2NDU2MTYyOjE3MjY3NjEwMzQ6c3BfYnRmOjMwMDA4NjI0NTgxMjYwMjo6MDo6&amp;url=%2FJerry-Lang-ebook%2Fdp%2FB0791LZSPB%2Fref%3Dsr_1_115_sspa%3Fdib%3DeyJ2IjoiMSJ9.10LsPvcB24D3J4t3H0LJ81QEKo5heAu6_L_ZjPnVHMG7vzlOJb1LU6sUvjzpaFoLHDQF1Rxl-H2CiWMeH_oi4S9Y_4iqXJcYL1wPVSRf-dSzOfDrnX7jn0rLKOx4U8bO40l27yZEYd6qlI7CgeEJcX6YBWVNytONuutFFBlJVHNbAATNTOie-23fVyI1a2Pp5UlFEBm17KwDah9w9cwjsBfpQ82491hlAVfVPHIyFTM.EkC6TGkDvw5Wt7EK1gBdi08EPFmIUeiceqcSCf-5d_E%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761034%26sr%3D8-115-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Corel WordPerfect Office Standard 2021 | Paquete de oficina de procesador de texto, hojas de cálculo y software de presentación [Descarga de PC]</t>
+          <t>Secrets To Selling Software</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>B093P3S2XJ</t>
+          <t>B0791LZSPB</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>174.99</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6311,14 +6305,14 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H139" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61BDbl19LaL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51pxwy4KBfL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -6326,21 +6320,21 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Tom-Benner-ebook/dp/B0BT15GFZG/ref=sr_1_110?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-110</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3NjUyNzYwMDUzNjMyNTg3OjE3MjY3NjEwNDY6c3BfYXRmX25leHQ6MzAwMDE1NjE4MTI3MTAyOjowOjo&amp;url=%2FUlrik-Lehrskov-Schmidt%2Fdp%2F1544536313%2Fref%3Dsr_1_113_sspa%3Fdib%3DeyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761046%26sr%3D8-113-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Naming Things: The Hardest Problem in Software Engineering</t>
+          <t>The Pricing Roadmap: How to Design B2B SaaS Pricing Models That Your Customers Will Love</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>B0BT15GFZG</t>
+          <t>1544536313</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>9.99</v>
+        <v>16.19</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6353,14 +6347,14 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="H140" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81RZSDPRFrL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61EAeph2g4L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -6368,21 +6362,21 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07QFBPDNT/ref=sr_1_111?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-111</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3NjUyNzYwMDUzNjMyNTg3OjE3MjY3NjEwNDY6c3BfYXRmX25leHQ6MzAwMzMyMTA2MDEzNzAyOjowOjo&amp;url=%2FAZUS0002-01A-FBA%2Fdp%2FB06WP73RDN%2Fref%3Dsr_1_114_sspa%3Fdib%3DeyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761046%26sr%3D8-114-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Laplink PCmover Express | Instant Download | Single Use License | Moves Files, and Settings to Your New PC</t>
+          <t>GIMP Photo Editor 2024 Premium Professional Image Editing Software CD Compatible with Windows 11 10 8.1 8 7 Vista XP PC 32 &amp; 64-Bit, macOS, Mac OS X &amp; Linux – Lifetime Licence, No Monthly Subscription</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>B07QFBPDNT</t>
+          <t>B06WP73RDN</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>29.95</v>
+        <v>19.99</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -6391,40 +6385,42 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H141" t="n">
-        <v>67</v>
+        <v>771</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71bUd7YaD7L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61Mw9zor+ML._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07QHLRL1H/ref=sr_1_113?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-113</t>
+          <t>https://www.amazon.com/-/es/dp/B0CWMNVG2S/ref=sr_1_115?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-115</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Laplink PCmover Professional | Instant Download | Single Use License | Moves Applications, Files, and Settings to Your New PC</t>
+          <t>Wyze Security Plan - Cam Unlimited | Unlimited Cameras | 12 months Subscription. Full AI features | Facial Recognition for Friendly Faces | Smart Detection for Person, Pet, Package, Vehicle and Glass Break | Security Surveillance and Monitoring | Rolling 14 Days Event Video Recording | Activation Required | Cancel Anytime</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>B07QHLRL1H</t>
+          <t>B0CWMNVG2S</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>39.95</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -6437,14 +6433,14 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H142" t="n">
-        <v>1086</v>
+        <v>88</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/81wHLB1TuAL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61UfSQloi-L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -6452,21 +6448,21 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07ZPCNJC1/ref=sr_1_114?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-114</t>
+          <t>https://www.amazon.com/-/es/Lightburn-Software-licencia-mayor%C3%ADa-grabadores/dp/B0BQHGGLYF/ref=sr_1_116?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-116</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ralix Reinstall DVD For Windows 7 All Versions 32/64 bit. Recover, Restore, Repair Boot Disc, and Install to Factory Default will Fix PC Easy!</t>
+          <t>Lightburn Software - Clave de licencia Gcode, para la mayoría de grabadores láser de diodo en el mercado</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>B07ZPCNJC1</t>
+          <t>B0BQHGGLYF</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>11.99</v>
+        <v>60.99</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -6475,42 +6471,42 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>50+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="H143" t="n">
-        <v>1370</v>
+        <v>159</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61zviPfwJnL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51YkUyGsP1L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Melia-Stevanovic/dp/B0C1JFQYCR/ref=sr_1_115?dib=eyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889917&amp;sr=8-115</t>
+          <t>https://www.amazon.com/-/es/dp/B0CJDF53FT/ref=sr_1_117?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-117</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Behavioral Interviews for Software Engineers: All the Must-Know Questions With Proven Strategies and Answers That Will Get You the Job</t>
+          <t>H&amp;R Block Tax Software Deluxe 2023 with Refund Bonus Offer (Amazon Exclusive) (PC/MAC Download)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>B0C1JFQYCR</t>
+          <t>B0CJDF53FT</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>18.99</v>
+        <v>30.93</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -6519,18 +6515,18 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G144" t="n">
         <v>4.2</v>
       </c>
       <c r="H144" t="n">
-        <v>38</v>
+        <v>820</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61+0s3HR--L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/51QHSXb9alL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -6538,21 +6534,21 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDY3Nzk1NTc2MjE0MjUyOjE3MjU4ODk5MTc6c3BfYnRmOjIwMDA4MzAwNjUwODY5ODo6MDo6&amp;url=%2Falimentaci%25C3%25B3n-programable-precisi%25C3%25B3n-Protecci%25C3%25B3n-m%25C3%25BAltiple%2Fdp%2FB0928LX2D1%2Fref%3Dsr_1_116_sspa%3Fdib%3DeyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889917%26sr%3D8-116-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B0CFT56V4V/ref=sr_1_118?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-118</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fuente de alimentación CC programable (0-30 V 0-10 A) Entrada de 110 V de alta precisión Protección múltiple de 4 dígitos con software de PC y carga USB</t>
+          <t>QUICKEN CLASSIC BUSINESS &amp; PERSONAL FOR NEW SUBSCRIBERS| 1 Year [PC Online code]</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>B0928LX2D1</t>
+          <t>B0CFT56V4V</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>119.99</v>
+        <v>77.93000000000001</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6561,18 +6557,18 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>PVPR:</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H145" t="n">
-        <v>1032</v>
+        <v>19</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71p-G9aCT3S._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61u4I4HhNNL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -6580,21 +6576,21 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo4MDY3Nzk1NTc2MjE0MjUyOjE3MjU4ODk5MTc6c3BfYnRmOjIwMDA3MTk1OTQ0NjA5ODo6MDo6&amp;url=%2FVideo-Converter-Software-compatible-Windows%2Fdp%2FB0B6W8H71Z%2Fref%3Dsr_1_117_sspa%3Fdib%3DeyJ2IjoiMSJ9.1yIec0Xj8XmKvCRxJZzteQZOB8IVKmbOIgnasX6NcLlfHX_wujPdniFJMB2kZjdFRinKDlKjabVgR3hAUJLXMrO6icuJRo5wqC28T_dvyln8m3sgR-kdPMZa6SG2pW-wbj1eWOyb9ezJgyx_9lQDYCpcxw39FezCQhnEUAkPjT1ILTIj6iG_VEsBYX0TjMk90XVh4e3QvUx-QlIXioVR673vXRrE7SDIczrS8jmzeeg.czt_LNADjePQFpgm9CiwOXahrL4u9Je3z4A8I1dMoMQ%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889917%26sr%3D8-117-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/Mark-Reed/dp/B0C1J1XLJT/ref=sr_1_119?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-119</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Video Converter Software compatible with Windows 11, 10, 8 and 7 – Easily convert video and audio files even in HD, 4K and 3D – Edit and improve your videos</t>
+          <t>C# &amp; C++: 5 Books in 1 - The #1 Coding Course from Beginner to Advanced (2024) (Computer Programming)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>B0B6W8H71Z</t>
+          <t>B0C1J1XLJT</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>24.99</v>
+        <v>34.19</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -6603,18 +6599,18 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H146" t="n">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71uNSRAFk7L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61wHW8GkfXL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -6622,21 +6618,21 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1MzI0MzAxNTkzMzQ3MTAxOjE3MjU4ODk5MzQ6c3BfYXRmX25leHQ6MjAwMDMxOTQ0NzA2MTk4OjowOjo&amp;url=%2FUSB-3-0-Edition%2Fdp%2FB0771TK6CR%2Fref%3Dsr_1_113_sspa%3Fdib%3DeyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889933%26sr%3D8-113-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B06XHD3478/ref=sr_1_120?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-120</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Laplink PCmover Ultimate 11 - Migration of your Applications, Files and Settings from an Old PC to a New PC - Data Transfer Software - Includes Optional Ultra-High-Speed USB 3.0 Transfer Cable - 1 Use</t>
+          <t>Pixillion Free Image File Converter - Convert JPG, PDF, PNG, GIF, and Many Other File Formats [Download]</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>B0771TK6CR</t>
+          <t>B06XHD3478</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>61.95</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -6645,42 +6641,40 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H147" t="n">
-        <v>5064</v>
+        <v>357</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71XddZXQSzL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J147" t="n">
-        <v>200</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81CmqhfxBAL._AC_UY218_.png</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1MzI0MzAxNTkzMzQ3MTAxOjE3MjU4ODk5MzQ6c3BfYXRmX25leHQ6MzAwMDE0MDY0NjU0NjAyOjowOjo&amp;url=%2Fdp%2FB0C5JX4CZ1%2Fref%3Dsr_1_114_sspa%3Fdib%3DeyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889933%26sr%3D8-114-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dA%26psc%3D1</t>
+          <t>https://www.amazon.com/-/es/dp/B07SR13WVW/ref=sr_1_121?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-121</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tech-Shop-pro With Key Compatible Windows 10 Profesional 64 Bit USB.Key Included Install To Factory Fresh, Recover, Repair and Restore Boot USB. Fix PC, Laptop and Desktop. Free Technical Support.</t>
+          <t>PhotoPad Photo Editing and Image Editor Free [PC Download]</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>B0C5JX4CZ1</t>
+          <t>B07SR13WVW</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6689,42 +6683,40 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H148" t="n">
-        <v>199</v>
+        <v>832</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71FoOtcipZL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J148" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/61OhD1HYizL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Melia-Stevanovic/dp/B0C1JFQYCR/ref=sr_1_115?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-115</t>
+          <t>https://www.amazon.com/-/es/Calculadora-gr%C3%A1fica-TI-Nspire-software-estudiantes/dp/B07SDG5719/ref=sr_1_123?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-123</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Behavioral Interviews for Software Engineers: All the Must-Know Questions With Proven Strategies and Answers That Will Get You the Job</t>
+          <t>Calculadora gráfica TI-Nspire CX II a color con software para estudiantes</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>B0C1JFQYCR</t>
+          <t>B07SDG5719</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>18.99</v>
+        <v>127.31</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6733,40 +6725,42 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>7 K+ comprados el mes pasado</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H149" t="n">
-        <v>38</v>
+        <v>3581</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61+0s3HR--L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/71uxevbHzGL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>7000</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0CD35679L/ref=sr_1_116?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-116</t>
+          <t>https://www.amazon.com/-/es/Accelerate-Software-Performing-Technology-Organizations/dp/1942788339/ref=sr_1_125?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-125</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NordVPN Complete - 1-Year - VPN &amp; Cybersecurity Software Bundle — Block Online Threats, Manage Passwords, and Store Files in Secure Cloud Storage - PC/Mac/Mobile [Online Code]</t>
+          <t>Accelerate: The Science of Lean Software and DevOps: Building and Scaling High Performing Technology Organizations</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>B0CD35679L</t>
+          <t>1942788339</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>99.98999999999999</v>
+        <v>13</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6775,18 +6769,18 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H150" t="n">
-        <v>434</v>
+        <v>3192</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Xdw5jRkQL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71A4igyepNL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -6794,21 +6788,21 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/FormalWill-testamento-Estados-totalmente-personalizado/dp/B08ZS9X42J/ref=sr_1_117?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-117</t>
+          <t>https://www.amazon.com/-/es/ULT15N24EN/dp/B00MI3YYS6/ref=sr_1_126?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-126</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Kit de testamento legal de Estados Unidos totalmente personalizado - (clave de software) válido en todos los estados - Paquete de 2 para cónyuges/parejas.</t>
+          <t>AVG Ultimate 2024 | Antivirus+Cleaner+VPN | 5 Devices, 2 Years [PC/Mac/Mobile Download]</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>B08ZS9X42J</t>
+          <t>B00MI3YYS6</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>69.95</v>
+        <v>34.99</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6821,14 +6815,14 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H151" t="n">
-        <v>40</v>
+        <v>1103</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71rBTamdVML._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/61y4FruzElL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -6836,21 +6830,21 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/TC1-N-NGTeco-Reloj-tiempo-nube/dp/B0D4D4Q5G2/ref=sr_1_118?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-118</t>
+          <t>https://www.amazon.com/-/es/Catherine-Nelson/dp/1098136209/ref=sr_1_127?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-127</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NGTeco Reloj de tiempo de nube</t>
+          <t>Software Engineering for Data Scientists: From Notebooks to Scalable Systems</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>B0D4D4Q5G2</t>
+          <t>1098136209</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>229.99</v>
+        <v>51.03</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6859,42 +6853,40 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>200+ comprados el mes pasado</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H152" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61Sgn8+-BlL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>200</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/81UICijjY6L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B07ZPCNJC1/ref=sr_1_120?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-120</t>
+          <t>https://www.amazon.com/-/es/dp/B0BX88HS2S/ref=sr_1_128?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-128</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ralix Reinstall DVD For Windows 7 All Versions 32/64 bit. Recover, Restore, Repair Boot Disc, and Install to Factory Default will Fix PC Easy!</t>
+          <t>Dragon Professional 16.0, Upgrade from Dragon Professional 15.0 [PC Download]</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>B07ZPCNJC1</t>
+          <t>B0BX88HS2S</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>11.99</v>
+        <v>349</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6903,42 +6895,40 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>100+ comprados el mes pasado</t>
+          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H153" t="n">
-        <v>1370</v>
+        <v>14</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61zviPfwJnL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J153" t="n">
-        <v>100</v>
-      </c>
+          <t>https://m.media-amazon.com/images/I/71NEFtrr2YL._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B0B72GCCS4/ref=sr_1_121?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-121</t>
+          <t>https://www.amazon.com/-/es/Daniel-Jackson-ebook/dp/B09DTR6F22/ref=sr_1_129?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-129</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Audacity® 2023 Newest Professional Pro Audio Music Recording Editing Software For Win 10,8,7,*Vista* And XP Mac OS X Linux Including Bonus Loops and Samples Collection</t>
+          <t>The Essence of Software: Why Concepts Matter for Great Design</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>B0B72GCCS4</t>
+          <t>B09DTR6F22</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>19.85</v>
+        <v>14.37</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6947,18 +6937,18 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H154" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/61omVNBw7yL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/711LpQQe2LS._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -6966,21 +6956,21 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/Artistic-Janome-Software-Digitalizador-Art%C3%ADstico/dp/B07C8YMV83/ref=sr_1_122?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-122</t>
+          <t>https://www.amazon.com/-/es/David-B-Black-ebook/dp/B00CUGHDT8/ref=sr_1_130?dib=eyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s&amp;dib_tag=se&amp;keywords=Software&amp;qid=1726761046&amp;sr=8-130</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Janome Software Digitalizador Artístico</t>
+          <t>Wartime Software: Building Software when Speed Matters (Building Better Software Better Book 3)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>B07C8YMV83</t>
+          <t>B00CUGHDT8</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>899</v>
+        <v>2.99</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6989,18 +6979,18 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>|</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H155" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/51Ka5va9Z4L._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/81cSYCoRRfL._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -7008,21 +6998,21 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/dp/B008XAXAC4/ref=sr_1_124?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-124</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3NjUyNzYwMDUzNjMyNTg3OjE3MjY3NjEwNDY6c3BfYnRmOjIwMDA0NDc2NTM5MTg5ODo6MDo6&amp;url=%2Fdp%2FB09VZG2N9T%2Fref%3Dsr_1_131_sspa%3Fdib%3DeyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761046%26sr%3D8-131-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Apache OpenOffice 4.0.1 [Open Source Download]</t>
+          <t>Home design and 3D construction software compatible with Windows 11, 10, 8.1, 7 - Plan and design buildings from initial rough sketches to the finished blueprints - 3D CAD 8 Professional</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>B008XAXAC4</t>
+          <t>B09VZG2N9T</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>49.99</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7031,18 +7021,18 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="H156" t="n">
-        <v>1708</v>
+        <v>39</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/41XRri0F5fL._AC_UY218_.jpg</t>
+          <t>https://m.media-amazon.com/images/I/71bLlK8aF0L._AC_UY218_.jpg</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -7050,21 +7040,21 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.amazon.com/-/es/retroiluminaci%C3%B3n-pulgadas-software-sincronizada-compatible/dp/B0C4LJVMFG/ref=sr_1_125?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-125</t>
+          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo3NjUyNzYwMDUzNjMyNTg3OjE3MjY3NjEwNDY6c3BfYnRmOjMwMDMxNzEyNjQ2NDUwMjo6MDo6&amp;url=%2Fdp%2FB0C91QQJHT%2Fref%3Dsr_1_132_sspa%3Fdib%3DeyJ2IjoiMSJ9.0wn7XuYyDAXmnq9UUBrUruKHVAy5BtCP_6kTDbxllEvkIJtht_ZmpwTTK0tgnHayLVwezCWTzKkEsXx2r6iJdxgu297zw6VjiBQXpMkyOFy_9crBe_AybwKIJhicRaqPdTi9Ebc0SzGk4FwbUAjgOjvQu3xpFBpT14XI4LkNbltEmV8i0O3TAHbJ3LOotryAQLgz3cJ8SnJGlRn-pUeM9BlwOAkc_xHh_g_9aIvb4X0.C1mk_OMg2oPVBT8bCVK9zr8Gqu-ZycNlnzyJvCjUY8s%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1726761046%26sr%3D8-132-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Govee Luz de juego para monitor G1, retroiluminación LED RGBIC para PC de 24 a 26 pulgadas, tira de luces a juego de colores de software sincronizada con la pantalla, compatible con Alexa y Google</t>
+          <t>Getbehind.me User-Friendly, Ultra-Fast VPN Software for Internet Security, Highly Secure and Completely Anonymous Cyber Security Subscription</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>B0C4LJVMFG</t>
+          <t>B0C91QQJHT</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>44.99</v>
+        <v>19.99</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7073,317 +7063,21 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>50+ comprados el mes pasado</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H157" t="n">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://m.media-amazon.com/images/I/71JQLoQy38L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J157" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/dp/B06XHS8HDM/ref=sr_1_126?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-126</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>VideoPad Video Editor Free - Create Stunning Movies and Videos with Effects and Transitions [Download]</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>B06XHS8HDM</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H158" t="n">
-        <v>999</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/810xsDCJ4eL._AC_UY218_.png</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/dp/B0823GT5JG/ref=sr_1_128?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-128</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>iFit Train - Monthly Membership</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>B0823GT5JG</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>15</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H159" t="n">
-        <v>551</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/518nPPYk0iL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/dp/B06XNSRJVL/ref=sr_1_129?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-129</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>MixPad Free Multitrack Recording Studio and Music Mixing Software [Download]</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>B06XNSRJVL</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H160" t="n">
-        <v>780</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/71ltIxIuz1L._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/dp/B09RGN89CW/ref=sr_1_130?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-130</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Software Development Pearls: Lessons from Fifty Years of Software Experience</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>B09RGN89CW</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Más opciones de compra</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H161" t="n">
-        <v>35</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/710P5Qd0PmL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/dp/B00PT6H3BE/ref=sr_1_131?dib=eyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc&amp;dib_tag=se&amp;keywords=Software&amp;qid=1725889933&amp;sr=8-131</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>musikCube v 1.1 for PC [Open Source Download]</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>B00PT6H3BE</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H162" t="n">
-        <v>49</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/61ugV3KoqpL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1MzI0MzAxNTkzMzQ3MTAxOjE3MjU4ODk5MzQ6c3BfYnRmOjMwMDA4MjE2OTA3OTEwMjo6MDo6&amp;url=%2Fdp%2FB0CJMDVLZC%2Fref%3Dsr_1_132_sspa%3Fdib%3DeyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889933%26sr%3D8-132-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Digital Cut - Background Remover - Edit, remove and change the background from your pictures easily for Win 11, 10</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>B0CJMDVLZC</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>24.99</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H163" t="n">
-        <v>12</v>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/81ihWtZvHIL._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com/-/es/sspa/click?ie=UTF8&amp;spc=MTo1MzI0MzAxNTkzMzQ3MTAxOjE3MjU4ODk5MzQ6c3BfYnRmOjIwMDAyMjA0NDk5Mzk3MTo6MDo6&amp;url=%2FTyping-Instructor-Bundle-Software-Programs%2Fdp%2FB07PZXT4RF%2Fref%3Dsr_1_133_sspa%3Fdib%3DeyJ2IjoiMSJ9.3fNO_hpFKyNn3qN2clU4HMxbve02HmMNRqiafaFtwAUB8uFoWezsM6CN5XUrx2JWSrBLMkfkOJfIWlYZtkfVLKrehrzCn4OW_vHK6-43H6g_MjMo_IlAant1gaw3vWY68ulOhaB7Syzp3x2C6EX1xQHomrp-0pZCHOvE-ejdu33bVgQ1msKaasjYjQrlA_iUbSoUKIcfWE42gLDPYfuPpdTzPC-mTJa7nBk1x5JOpUY.fFNzZfS8UTgJLK4A6blxnxthcUUwAMpuHslUJXsUZoc%26dib_tag%3Dse%26keywords%3DSoftware%26qid%3D1725889933%26sr%3D8-133-spons%26sp_csd%3Dd2lkZ2V0TmFtZT1zcF9idGY%26psc%3D1</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Typing Instructor Bundle - Includes Two Software Programs for Kids &amp; Adults to Learn to Touch Type - CD/PC</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>B07PZXT4RF</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Sin información</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Compra productos de marcas de pequeñas empresas que se venden en la plataforma Amazon. Descubre más sobre las pequeñas empresas que se asocian con Amazon y el compromiso de Amazon de empoderarlas.</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H164" t="n">
-        <v>80</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>https://m.media-amazon.com/images/I/51ovF4moRML._AC_UY218_.jpg</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr"/>
+          <t>https://m.media-amazon.com/images/I/61TK6hWaH2L._AC_UY218_.jpg</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
